--- a/URBN.xlsx
+++ b/URBN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E4AD57-CA3B-477C-83B6-2AD612A5796D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0E0AC2-E1B0-43A8-8BDC-EE57D4E54346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{74F0CBED-AE29-49BC-826C-5A327DCF0A9C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>URBN</t>
   </si>
@@ -126,42 +126,6 @@
     <t>EPS</t>
   </si>
   <si>
-    <t>Retail Operations</t>
-  </si>
-  <si>
-    <t>Nuuly Operations</t>
-  </si>
-  <si>
-    <t>Wholesale Operations</t>
-  </si>
-  <si>
-    <t>Intersegment Eleminations</t>
-  </si>
-  <si>
-    <t>Apperal</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Accessoires</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Apperal Growth</t>
-  </si>
-  <si>
-    <t>Home Growth</t>
-  </si>
-  <si>
-    <t>Accessoires Growth</t>
-  </si>
-  <si>
-    <t>Other Growth</t>
-  </si>
-  <si>
     <t>Gross Margin</t>
   </si>
   <si>
@@ -173,13 +137,88 @@
   <si>
     <t>Revenue Growth</t>
   </si>
+  <si>
+    <t>Anthroplogie Revenue</t>
+  </si>
+  <si>
+    <t>Free People Revenue</t>
+  </si>
+  <si>
+    <t>Urban Outfiters Revenue</t>
+  </si>
+  <si>
+    <t>Nuuly Revenue</t>
+  </si>
+  <si>
+    <t>Menus &amp; Venues Revenue</t>
+  </si>
+  <si>
+    <t>Retail Revenue</t>
+  </si>
+  <si>
+    <t>Subscription Revenue</t>
+  </si>
+  <si>
+    <t>Wholesale Revenue</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
+  </si>
+  <si>
+    <t>Urban Outfiters Stores</t>
+  </si>
+  <si>
+    <t>Anthropologie Stores</t>
+  </si>
+  <si>
+    <t>Free People Stores</t>
+  </si>
+  <si>
+    <t>Menus &amp; Venues Stores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Stores </t>
+  </si>
+  <si>
+    <t>Franchise Stores</t>
+  </si>
+  <si>
+    <t>Store Growth</t>
+  </si>
+  <si>
+    <t>Anthroplogie Growth</t>
+  </si>
+  <si>
+    <t>Free People Growth</t>
+  </si>
+  <si>
+    <t>Urban Outfiters Growth</t>
+  </si>
+  <si>
+    <t>Nuuly Growth</t>
+  </si>
+  <si>
+    <t>Menus &amp; Venues Growth</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="##,#00;\(#,##0.0\)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0;\(#,##0.0\)"/>
+    <numFmt numFmtId="167" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -235,7 +274,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -246,6 +285,23 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -584,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1365A65-7955-473E-AB8C-4FB37DA242DC}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +662,7 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>52.65</v>
+        <v>73.099999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -614,10 +670,10 @@
         <v>5</v>
       </c>
       <c r="J3" s="3">
-        <v>92.279465999999999</v>
+        <v>91.752408000000003</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -629,7 +685,7 @@
       </c>
       <c r="J4" s="3">
         <f>+J2*J3</f>
-        <v>4858.5138848999995</v>
+        <v>6707.1010247999993</v>
       </c>
       <c r="K4" s="5"/>
     </row>
@@ -641,11 +697,11 @@
         <v>7</v>
       </c>
       <c r="J5" s="3">
-        <f>290.481+319.949</f>
-        <v>610.43000000000006</v>
+        <f>189.433+285.585</f>
+        <v>475.01799999999997</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -656,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -665,7 +721,7 @@
       </c>
       <c r="J7" s="3">
         <f>+J4-J5+J6</f>
-        <v>4248.0838848999992</v>
+        <v>6232.0830247999993</v>
       </c>
     </row>
   </sheetData>
@@ -678,13 +734,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4758D4-685D-4455-97E5-6E84929D73B9}">
-  <dimension ref="A1:BH339"/>
+  <dimension ref="A1:BH348"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,12 +749,12 @@
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
@@ -723,1095 +779,538 @@
       <c r="J2" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3">
-        <v>1145.7660000000001</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3">
-        <v>1182.557</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="3"/>
-    </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
-        <v>65.516000000000005</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
-        <v>97.231999999999999</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-    </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
-        <v>74.257000000000005</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3">
-        <v>85.495999999999995</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="3"/>
-      <c r="AZ5" s="3"/>
-    </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="K2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15">
+        <v>262</v>
+      </c>
+      <c r="F3" s="15">
+        <v>262</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15">
+        <v>264</v>
+      </c>
+      <c r="J3" s="15">
+        <v>255</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15">
+        <v>237</v>
+      </c>
+      <c r="F4" s="15">
+        <v>237</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15">
+        <v>242</v>
+      </c>
+      <c r="J4" s="15">
+        <v>239</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15">
+        <f>160+38</f>
+        <v>198</v>
+      </c>
+      <c r="F5" s="15">
+        <v>198</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15">
+        <v>216</v>
+      </c>
+      <c r="J5" s="15">
+        <f>167+63</f>
+        <v>230</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
-        <v>-4.3650000000000002</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
-        <v>-3.43</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AW6" s="3"/>
-      <c r="AX6" s="3"/>
-      <c r="AY6" s="3"/>
-      <c r="AZ6" s="3"/>
-      <c r="BA6" s="3"/>
-      <c r="BB6" s="3"/>
-      <c r="BC6" s="3"/>
-      <c r="BD6" s="3"/>
-      <c r="BE6" s="3"/>
-      <c r="BF6" s="3"/>
-      <c r="BG6" s="3"/>
-      <c r="BH6" s="3"/>
-    </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
-        <v>771.16600000000005</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3">
-        <v>797.70899999999995</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="3"/>
-      <c r="BC7" s="3"/>
-      <c r="BD7" s="3"/>
-      <c r="BE7" s="3"/>
-      <c r="BF7" s="3"/>
-      <c r="BG7" s="3"/>
-      <c r="BH7" s="3"/>
-    </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
-        <v>173.06200000000001</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3">
-        <v>169.001</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-      <c r="AY8" s="3"/>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
-      <c r="BB8" s="3"/>
-      <c r="BC8" s="3"/>
-      <c r="BD8" s="3"/>
-      <c r="BE8" s="3"/>
-      <c r="BF8" s="3"/>
-      <c r="BG8" s="3"/>
-      <c r="BH8" s="3"/>
-    </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
-        <v>148.33799999999999</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3">
-        <v>161.851</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="3"/>
-      <c r="AW9" s="3"/>
-      <c r="AX9" s="3"/>
-      <c r="AY9" s="3"/>
-      <c r="AZ9" s="3"/>
-      <c r="BA9" s="3"/>
-      <c r="BB9" s="3"/>
-      <c r="BC9" s="3"/>
-      <c r="BD9" s="3"/>
-      <c r="BE9" s="3"/>
-      <c r="BF9" s="3"/>
-      <c r="BG9" s="3"/>
-      <c r="BH9" s="3"/>
-    </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
-        <v>53.2</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3">
-        <v>53.996000000000002</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
-      <c r="AY10" s="3"/>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="3"/>
-      <c r="BB10" s="3"/>
-      <c r="BC10" s="3"/>
-      <c r="BD10" s="3"/>
-      <c r="BE10" s="3"/>
-      <c r="BF10" s="3"/>
-      <c r="BG10" s="3"/>
-      <c r="BH10" s="3"/>
-    </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6">
-        <v>1281.174</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1486.194</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6">
-        <v>1361.855</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1636.12</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-      <c r="AU11" s="3"/>
-      <c r="AV11" s="3"/>
-      <c r="AW11" s="3"/>
-      <c r="AX11" s="3"/>
-      <c r="AY11" s="3"/>
-      <c r="AZ11" s="3"/>
-      <c r="BA11" s="3"/>
-      <c r="BB11" s="3"/>
-      <c r="BC11" s="3"/>
-      <c r="BD11" s="3"/>
-      <c r="BE11" s="3"/>
-      <c r="BF11" s="3"/>
-      <c r="BG11" s="3"/>
-      <c r="BH11" s="3"/>
-    </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
-        <f>825.375+1.392</f>
-        <v>826.76700000000005</v>
-      </c>
-      <c r="F12" s="3">
-        <f>1041.526+10.483</f>
-        <v>1052.009</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3">
-        <v>864.53599999999994</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1108.4390000000001</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="3"/>
-      <c r="BE12" s="3"/>
-      <c r="BF12" s="3"/>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="3"/>
-    </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="3">
-        <f t="shared" ref="C13:H13" si="0">+C11-C12</f>
+        <v>48</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15">
+        <v>9</v>
+      </c>
+      <c r="F6" s="15">
+        <v>9</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15">
+        <v>9</v>
+      </c>
+      <c r="J6" s="15">
+        <v>9</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+    </row>
+    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="16">
+        <f t="shared" ref="C7:H7" si="0">+SUM(C3:C6)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D7" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E7" s="16">
         <f t="shared" si="0"/>
-        <v>454.40699999999993</v>
-      </c>
-      <c r="F13" s="3">
+        <v>706</v>
+      </c>
+      <c r="F7" s="16">
         <f t="shared" si="0"/>
-        <v>434.18499999999995</v>
-      </c>
-      <c r="G13" s="3">
+        <v>706</v>
+      </c>
+      <c r="G7" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H7" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="3">
-        <f>+I11-I12</f>
-        <v>497.31900000000007</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" ref="J13" si="1">+J11-J12</f>
-        <v>527.68099999999981</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="3"/>
-      <c r="BC13" s="3"/>
-      <c r="BD13" s="3"/>
-      <c r="BE13" s="3"/>
-      <c r="BF13" s="3"/>
-      <c r="BG13" s="3"/>
-      <c r="BH13" s="3"/>
-    </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="I7" s="16">
+        <f>+SUM(I3:I6)</f>
+        <v>731</v>
+      </c>
+      <c r="J7" s="16">
+        <f t="shared" ref="J7:N7" si="1">+SUM(J3:J6)</f>
+        <v>733</v>
+      </c>
+      <c r="K7" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15">
+        <v>9</v>
+      </c>
+      <c r="F8" s="15">
+        <v>9</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15">
+        <v>9</v>
+      </c>
+      <c r="J8" s="15">
+        <v>9</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="12">
+        <v>549.81899999999996</v>
+      </c>
+      <c r="F10" s="12">
+        <v>679.524</v>
+      </c>
+      <c r="G10" s="12">
+        <v>526.38499999999999</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12">
+        <v>587.923</v>
+      </c>
+      <c r="J10" s="12">
+        <v>743.03</v>
+      </c>
+      <c r="K10" s="13">
+        <v>569.93100000000004</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="12">
+        <v>331.77199999999999</v>
+      </c>
+      <c r="F11" s="12">
+        <v>362.26600000000002</v>
+      </c>
+      <c r="G11" s="12">
+        <v>318.69099999999997</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12">
+        <v>365.85700000000003</v>
+      </c>
+      <c r="J11" s="12">
+        <v>310.61799999999999</v>
+      </c>
+      <c r="K11" s="13">
+        <v>353.11200000000002</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="12">
+        <v>324.375</v>
+      </c>
+      <c r="F12" s="12">
+        <v>372.56599999999997</v>
+      </c>
+      <c r="G12" s="12">
+        <v>270.25799999999998</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12">
+        <v>300.577</v>
+      </c>
+      <c r="J12" s="12">
+        <v>360.19200000000001</v>
+      </c>
+      <c r="K12" s="13">
+        <v>273.505</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="12">
+        <v>65.516000000000005</v>
+      </c>
+      <c r="F13" s="12">
+        <v>63.08</v>
+      </c>
+      <c r="G13" s="12">
+        <v>77.941999999999993</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12">
+        <v>97.231999999999999</v>
+      </c>
+      <c r="J13" s="12">
+        <v>122.524</v>
+      </c>
+      <c r="K13" s="13">
+        <v>124.354</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
-        <v>345.42899999999997</v>
-      </c>
-      <c r="F14" s="3">
-        <f>370.445+6.404</f>
-        <v>376.84899999999999</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>368.62799999999999</v>
-      </c>
-      <c r="J14" s="3">
-        <v>402.36700000000002</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="3"/>
-      <c r="AY14" s="3"/>
-      <c r="AZ14" s="3"/>
-      <c r="BA14" s="3"/>
-      <c r="BB14" s="3"/>
-      <c r="BC14" s="3"/>
-      <c r="BD14" s="3"/>
-      <c r="BE14" s="3"/>
-      <c r="BF14" s="3"/>
-      <c r="BG14" s="3"/>
-      <c r="BH14" s="3"/>
-    </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="12">
+        <v>9.6920000000000002</v>
+      </c>
+      <c r="F14" s="12">
+        <v>8.7579999999999991</v>
+      </c>
+      <c r="G14" s="12">
+        <v>7.4560000000000004</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12">
+        <v>10.266</v>
+      </c>
+      <c r="J14" s="12">
+        <v>9.7560000000000002</v>
+      </c>
+      <c r="K14" s="13">
+        <v>8.5990000000000002</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" ref="C15:H15" si="2">+C13-C14</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="2"/>
-        <v>108.97799999999995</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="2"/>
-        <v>57.335999999999956</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <f>+I13-I14</f>
-        <v>128.69100000000009</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" ref="J15" si="3">+J13-J14</f>
-        <v>125.31399999999979</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
-      <c r="AX15" s="3"/>
-      <c r="AY15" s="3"/>
-      <c r="AZ15" s="3"/>
-      <c r="BA15" s="3"/>
-      <c r="BB15" s="3"/>
-      <c r="BC15" s="3"/>
-      <c r="BD15" s="3"/>
-      <c r="BE15" s="3"/>
-      <c r="BF15" s="3"/>
-      <c r="BG15" s="3"/>
-      <c r="BH15" s="3"/>
-    </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="12">
+        <v>1145.7660000000001</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1368.742</v>
+      </c>
+      <c r="G15" s="12">
+        <v>1062.6849999999999</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12">
+        <v>1182.557</v>
+      </c>
+      <c r="J15" s="12">
+        <v>1454.9960000000001</v>
+      </c>
+      <c r="K15" s="13">
+        <v>1130.51</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="F16" s="3">
-        <v>6.6890000000000001</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3">
-        <v>7.141</v>
-      </c>
-      <c r="J16" s="3">
-        <v>5.5919999999999996</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="3"/>
-      <c r="AW16" s="3"/>
-      <c r="AX16" s="3"/>
-      <c r="AY16" s="3"/>
-      <c r="AZ16" s="3"/>
-      <c r="BA16" s="3"/>
-      <c r="BB16" s="3"/>
-      <c r="BC16" s="3"/>
-      <c r="BD16" s="3"/>
-      <c r="BE16" s="3"/>
-      <c r="BF16" s="3"/>
-      <c r="BG16" s="3"/>
-      <c r="BH16" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="12">
+        <v>65.516000000000005</v>
+      </c>
+      <c r="F16" s="12">
+        <v>63.08</v>
+      </c>
+      <c r="G16" s="12">
+        <v>77.941999999999993</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12">
+        <v>97.231999999999999</v>
+      </c>
+      <c r="J16" s="12">
+        <v>112.524</v>
+      </c>
+      <c r="K16" s="13">
+        <v>124.53400000000001</v>
+      </c>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
     </row>
     <row r="17" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" ref="C17:H17" si="4">+C15+C16</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="4"/>
-        <v>109.68299999999995</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="4"/>
-        <v>64.024999999999949</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <f>+I15+I16</f>
-        <v>135.83200000000008</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" ref="J17" si="5">+J15+J16</f>
-        <v>130.90599999999981</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
-      <c r="AW17" s="3"/>
-      <c r="AX17" s="3"/>
-      <c r="AY17" s="3"/>
-      <c r="AZ17" s="3"/>
-      <c r="BA17" s="3"/>
-      <c r="BB17" s="3"/>
-      <c r="BC17" s="3"/>
-      <c r="BD17" s="3"/>
-      <c r="BE17" s="3"/>
-      <c r="BF17" s="3"/>
-      <c r="BG17" s="3"/>
-      <c r="BH17" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="12">
+        <v>69.891999999999996</v>
+      </c>
+      <c r="F17" s="12">
+        <v>54.372</v>
+      </c>
+      <c r="G17" s="12">
+        <v>60.104999999999997</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12">
+        <v>82.066000000000003</v>
+      </c>
+      <c r="J17" s="12">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K17" s="13">
+        <v>74.637</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
     </row>
     <row r="18" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3">
-        <v>26.669</v>
-      </c>
-      <c r="F18" s="3">
-        <v>16.274000000000001</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3">
-        <v>32.920999999999999</v>
-      </c>
-      <c r="J18" s="3">
-        <v>10.605</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="14">
+        <v>1281.174</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1486.194</v>
+      </c>
+      <c r="G18" s="14">
+        <v>1200.732</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14">
+        <v>1361.855</v>
+      </c>
+      <c r="J18" s="14">
+        <v>1636.12</v>
+      </c>
+      <c r="K18" s="14">
+        <v>1329.501</v>
+      </c>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -1857,48 +1356,39 @@
     </row>
     <row r="19" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" ref="C19:H19" si="6">+C17-C18</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" si="6"/>
-        <v>83.013999999999953</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="6"/>
-        <v>47.750999999999948</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <f>+I17-I18</f>
-        <v>102.91100000000009</v>
-      </c>
-      <c r="J19" s="3">
-        <f t="shared" ref="J19" si="7">+J17-J18</f>
-        <v>120.3009999999998</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="13">
+        <f>825.375+1.392</f>
+        <v>826.76700000000005</v>
+      </c>
+      <c r="F19" s="13">
+        <f>1041.526+10.483</f>
+        <v>1052.009</v>
+      </c>
+      <c r="G19" s="13">
+        <f>787.746+4.601</f>
+        <v>792.34699999999998</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13">
+        <v>864.53599999999994</v>
+      </c>
+      <c r="J19" s="13">
+        <v>1108.4390000000001</v>
+      </c>
+      <c r="K19" s="13">
+        <v>840.43700000000001</v>
+      </c>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
@@ -1943,15 +1433,45 @@
       <c r="BH19" s="3"/>
     </row>
     <row r="20" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" ref="C20:H20" si="2">+C18-C19</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="2"/>
+        <v>454.40699999999993</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="2"/>
+        <v>434.18499999999995</v>
+      </c>
+      <c r="G20" s="3">
+        <f>+G18-G19</f>
+        <v>408.38499999999999</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <f>+I18-I19</f>
+        <v>497.31900000000007</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" ref="J20:K20" si="3">+J18-J19</f>
+        <v>527.68099999999981</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="3"/>
+        <v>489.06399999999996</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -2004,41 +1524,30 @@
     </row>
     <row r="21" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="2" t="e">
-        <f t="shared" ref="C21:H21" si="8">+C19/C22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D21" s="2" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="8"/>
-        <v>0.89473314805349191</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="8"/>
-        <v>0.51463372102672778</v>
-      </c>
-      <c r="G21" s="2" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="2" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="2">
-        <f>+I19/I22</f>
-        <v>1.1153175438373473</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" ref="J21" si="9">+J19/J22</f>
-        <v>1.3036594728452351</v>
-      </c>
-      <c r="K21" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <v>345.42899999999997</v>
+      </c>
+      <c r="F21" s="3">
+        <f>370.445+6.404</f>
+        <v>376.84899999999999</v>
+      </c>
+      <c r="G21" s="3">
+        <v>333.76100000000002</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
+        <v>368.62799999999999</v>
+      </c>
+      <c r="J21" s="3">
+        <v>402.36700000000002</v>
+      </c>
+      <c r="K21" s="3">
+        <v>360.84699999999998</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -2091,25 +1600,44 @@
     </row>
     <row r="22" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" ref="C22:H22" si="4">+C20-C21</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="E22" s="3">
-        <v>92.780736000000005</v>
+        <f t="shared" si="4"/>
+        <v>108.97799999999995</v>
       </c>
       <c r="F22" s="3">
-        <v>92.786379999999994</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+        <f t="shared" si="4"/>
+        <v>57.335999999999956</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="4"/>
+        <v>74.623999999999967</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I22" s="3">
-        <v>92.270583000000002</v>
+        <f>+I20-I21</f>
+        <v>128.69100000000009</v>
       </c>
       <c r="J22" s="3">
-        <v>92.279465999999999</v>
-      </c>
-      <c r="K22" s="3"/>
+        <f t="shared" ref="J22:K22" si="5">+J20-J21</f>
+        <v>125.31399999999979</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="5"/>
+        <v>128.21699999999998</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -2161,15 +1689,30 @@
       <c r="BH22" s="3"/>
     </row>
     <row r="23" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="E23" s="3">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="F23" s="3">
+        <v>6.6890000000000001</v>
+      </c>
+      <c r="G23" s="3">
+        <v>6.2460000000000004</v>
+      </c>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="I23" s="3">
+        <v>7.141</v>
+      </c>
+      <c r="J23" s="3">
+        <v>5.5919999999999996</v>
+      </c>
+      <c r="K23" s="3">
+        <v>9.6460000000000008</v>
+      </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -2222,29 +1765,44 @@
     </row>
     <row r="24" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="7" t="e">
-        <f t="shared" ref="G24:H28" si="10">+G7/C7-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="7">
-        <f>+I7/E7-1</f>
-        <v>3.4419307905172003E-2</v>
-      </c>
-      <c r="J24" s="7" t="e">
-        <f t="shared" ref="J24:J28" si="11">+J7/F7-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" ref="C24:H24" si="6">+C22+C23</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="6"/>
+        <v>109.68299999999995</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="6"/>
+        <v>64.024999999999949</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="6"/>
+        <v>80.869999999999962</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <f>+I22+I23</f>
+        <v>135.83200000000008</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" ref="J24:K24" si="7">+J22+J23</f>
+        <v>130.90599999999981</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="7"/>
+        <v>137.863</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -2297,29 +1855,29 @@
     </row>
     <row r="25" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="7">
-        <f t="shared" ref="I25:I28" si="12">+I8/E8-1</f>
-        <v>-2.3465578809906296E-2</v>
-      </c>
-      <c r="J25" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" s="3"/>
+      <c r="E25" s="3">
+        <v>26.669</v>
+      </c>
+      <c r="F25" s="3">
+        <v>16.274000000000001</v>
+      </c>
+      <c r="G25" s="3">
+        <v>19.105</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3">
+        <v>32.920999999999999</v>
+      </c>
+      <c r="J25" s="3">
+        <v>10.605</v>
+      </c>
+      <c r="K25" s="3">
+        <v>29.526</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -2372,29 +1930,44 @@
     </row>
     <row r="26" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="7">
-        <f t="shared" si="12"/>
-        <v>9.1096010462592192E-2</v>
-      </c>
-      <c r="J26" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" ref="C26:H26" si="8">+C24-C25</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="8"/>
+        <v>83.013999999999953</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="8"/>
+        <v>47.750999999999948</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="8"/>
+        <v>61.764999999999958</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <f>+I24-I25</f>
+        <v>102.91100000000009</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" ref="J26:K26" si="9">+J24-J25</f>
+        <v>120.3009999999998</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="9"/>
+        <v>108.337</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -2446,29 +2019,14 @@
       <c r="BH26" s="3"/>
     </row>
     <row r="27" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="7">
-        <f t="shared" si="12"/>
-        <v>1.496240601503751E-2</v>
-      </c>
-      <c r="J27" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -2522,29 +2080,44 @@
     </row>
     <row r="28" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="7" t="e">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2" t="e">
+        <f t="shared" ref="C28:H28" si="10">+C26/C29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="2" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="7" t="e">
+      <c r="E28" s="2">
+        <f t="shared" si="10"/>
+        <v>0.89473314805349191</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="10"/>
+        <v>0.51463372102672778</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="10"/>
+        <v>0.66325139892192531</v>
+      </c>
+      <c r="H28" s="2" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="7">
-        <f t="shared" si="12"/>
-        <v>6.2974272034868051E-2</v>
-      </c>
-      <c r="J28" s="7">
+      <c r="I28" s="2">
+        <f>+I26/I29</f>
+        <v>1.1153175438373473</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" ref="J28:K28" si="11">+J26/J29</f>
+        <v>1.3036594728452351</v>
+      </c>
+      <c r="K28" s="2">
         <f t="shared" si="11"/>
-        <v>0.10087915844095718</v>
-      </c>
-      <c r="K28" s="3"/>
+        <v>1.1807537519887217</v>
+      </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -2597,41 +2170,29 @@
     </row>
     <row r="29" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="7" t="e">
-        <f t="shared" ref="C29:H29" si="13">+C13/C11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E29" s="7">
-        <f t="shared" si="13"/>
-        <v>0.35468016054025442</v>
-      </c>
-      <c r="F29" s="7">
-        <f t="shared" si="13"/>
-        <v>0.29214557453468387</v>
-      </c>
-      <c r="G29" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="7">
-        <f>+I13/I11</f>
-        <v>0.36517764372859085</v>
-      </c>
-      <c r="J29" s="7">
-        <f>+J13/J11</f>
-        <v>0.32251974182822768</v>
-      </c>
-      <c r="K29" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <v>92.780736000000005</v>
+      </c>
+      <c r="F29" s="3">
+        <v>92.786379999999994</v>
+      </c>
+      <c r="G29" s="3">
+        <v>93.124567999999996</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3">
+        <v>92.270583000000002</v>
+      </c>
+      <c r="J29" s="3">
+        <v>92.279465999999999</v>
+      </c>
+      <c r="K29" s="3">
+        <v>91.752408000000003</v>
+      </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -2683,41 +2244,14 @@
       <c r="BH29" s="3"/>
     </row>
     <row r="30" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="7" t="e">
-        <f t="shared" ref="C30:H30" si="14">+C15/C11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D30" s="7" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E30" s="7">
-        <f t="shared" si="14"/>
-        <v>8.5061045572264155E-2</v>
-      </c>
-      <c r="F30" s="7">
-        <f t="shared" si="14"/>
-        <v>3.8579081869527097E-2</v>
-      </c>
-      <c r="G30" s="7" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="7" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="7">
-        <f>+I15/I11</f>
-        <v>9.4496844377705475E-2</v>
-      </c>
-      <c r="J30" s="7">
-        <f>+J15/J11</f>
-        <v>7.6592181502579154E-2</v>
-      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -2771,41 +2305,32 @@
     </row>
     <row r="31" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="7" t="e">
-        <f t="shared" ref="C31:H31" si="15">+C18/C17</f>
+        <v>51</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="7" t="e">
+        <f t="shared" ref="G31:H31" si="12">+G7/C7-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="7" t="e">
-        <f t="shared" si="15"/>
+      <c r="H31" s="7" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="7">
-        <f t="shared" si="15"/>
-        <v>0.24314615756315941</v>
-      </c>
-      <c r="F31" s="7">
-        <f t="shared" si="15"/>
-        <v>0.25418196017180811</v>
-      </c>
-      <c r="G31" s="7" t="e">
-        <f t="shared" si="15"/>
+      <c r="I31" s="7">
+        <f>+I7/E7-1</f>
+        <v>3.5410764872521261E-2</v>
+      </c>
+      <c r="J31" s="7">
+        <f t="shared" ref="J31:K31" si="13">+J7/F7-1</f>
+        <v>3.82436260623229E-2</v>
+      </c>
+      <c r="K31" s="7" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="7">
-        <f>+I18/I17</f>
-        <v>0.24236556923258129</v>
-      </c>
-      <c r="J31" s="7">
-        <f>+J18/J17</f>
-        <v>8.1012329457778989E-2</v>
-      </c>
-      <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -2857,15 +2382,33 @@
       <c r="BH31" s="3"/>
     </row>
     <row r="32" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7" t="e">
+        <f t="shared" ref="G32:J36" si="14">+G10/C10-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="14"/>
+        <v>6.930280692373314E-2</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" si="14"/>
+        <v>9.345659608784973E-2</v>
+      </c>
+      <c r="K32" s="7">
+        <f>+K10/G10-1</f>
+        <v>8.272652146242776E-2</v>
+      </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -2916,16 +2459,34 @@
       <c r="BG32" s="3"/>
       <c r="BH32" s="3"/>
     </row>
-    <row r="33" spans="3:60" x14ac:dyDescent="0.25">
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+    <row r="33" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="14"/>
+        <v>0.10273621643779474</v>
+      </c>
+      <c r="J33" s="7">
+        <f t="shared" si="14"/>
+        <v>-0.14256927230267269</v>
+      </c>
+      <c r="K33" s="7">
+        <f t="shared" ref="K33:K36" si="15">+K11/G11-1</f>
+        <v>0.10800744294630249</v>
+      </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -2976,16 +2537,34 @@
       <c r="BG33" s="3"/>
       <c r="BH33" s="3"/>
     </row>
-    <row r="34" spans="3:60" x14ac:dyDescent="0.25">
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
+    <row r="34" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="14"/>
+        <v>-7.3365703275529826E-2</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="14"/>
+        <v>-3.3212907243280299E-2</v>
+      </c>
+      <c r="K34" s="7">
+        <f t="shared" si="15"/>
+        <v>1.2014445455823752E-2</v>
+      </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -3036,16 +2615,34 @@
       <c r="BG34" s="3"/>
       <c r="BH34" s="3"/>
     </row>
-    <row r="35" spans="3:60" x14ac:dyDescent="0.25">
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
+    <row r="35" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" si="14"/>
+        <v>0.48409548812503811</v>
+      </c>
+      <c r="J35" s="7">
+        <f t="shared" si="14"/>
+        <v>0.94235890932149657</v>
+      </c>
+      <c r="K35" s="7">
+        <f t="shared" si="15"/>
+        <v>0.59546842523928056</v>
+      </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
@@ -3096,16 +2693,34 @@
       <c r="BG35" s="3"/>
       <c r="BH35" s="3"/>
     </row>
-    <row r="36" spans="3:60" x14ac:dyDescent="0.25">
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
+    <row r="36" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="14"/>
+        <v>5.9224102352455565E-2</v>
+      </c>
+      <c r="J36" s="7">
+        <f t="shared" si="14"/>
+        <v>0.11395295729618637</v>
+      </c>
+      <c r="K36" s="7">
+        <f t="shared" si="15"/>
+        <v>0.15329935622317592</v>
+      </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
@@ -3156,16 +2771,34 @@
       <c r="BG36" s="3"/>
       <c r="BH36" s="3"/>
     </row>
-    <row r="37" spans="3:60" x14ac:dyDescent="0.25">
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
+    <row r="37" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="8" t="e">
+        <f>+G18/C18-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="8" t="e">
+        <f>+H18/D18-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="8">
+        <f>+I18/E18-1</f>
+        <v>6.2974272034868051E-2</v>
+      </c>
+      <c r="J37" s="8">
+        <f>+J18/F18-1</f>
+        <v>0.10087915844095718</v>
+      </c>
+      <c r="K37" s="8">
+        <f>+K18/G18-1</f>
+        <v>0.10724208232977883</v>
+      </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -3216,16 +2849,46 @@
       <c r="BG37" s="3"/>
       <c r="BH37" s="3"/>
     </row>
-    <row r="38" spans="3:60" x14ac:dyDescent="0.25">
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
+    <row r="38" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="7" t="e">
+        <f t="shared" ref="C38:H38" si="16">+C20/C18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="7">
+        <f t="shared" si="16"/>
+        <v>0.35468016054025442</v>
+      </c>
+      <c r="F38" s="7">
+        <f t="shared" si="16"/>
+        <v>0.29214557453468387</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="16"/>
+        <v>0.34011336418118282</v>
+      </c>
+      <c r="H38" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="7">
+        <f>+I20/I18</f>
+        <v>0.36517764372859085</v>
+      </c>
+      <c r="J38" s="7">
+        <f>+J20/J18</f>
+        <v>0.32251974182822768</v>
+      </c>
+      <c r="K38" s="7">
+        <f>+K20/K18</f>
+        <v>0.36785530811936207</v>
+      </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
@@ -3276,16 +2939,46 @@
       <c r="BG38" s="3"/>
       <c r="BH38" s="3"/>
     </row>
-    <row r="39" spans="3:60" x14ac:dyDescent="0.25">
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+    <row r="39" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="7" t="e">
+        <f t="shared" ref="C39:H39" si="17">+C22/C18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D39" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E39" s="7">
+        <f t="shared" si="17"/>
+        <v>8.5061045572264155E-2</v>
+      </c>
+      <c r="F39" s="7">
+        <f t="shared" si="17"/>
+        <v>3.8579081869527097E-2</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="17"/>
+        <v>6.2148755925552052E-2</v>
+      </c>
+      <c r="H39" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="7">
+        <f>+I22/I18</f>
+        <v>9.4496844377705475E-2</v>
+      </c>
+      <c r="J39" s="7">
+        <f>+J22/J18</f>
+        <v>7.6592181502579154E-2</v>
+      </c>
+      <c r="K39" s="7">
+        <f>+K22/K18</f>
+        <v>9.6439942504744247E-2</v>
+      </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -3336,16 +3029,46 @@
       <c r="BG39" s="3"/>
       <c r="BH39" s="3"/>
     </row>
-    <row r="40" spans="3:60" x14ac:dyDescent="0.25">
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
+    <row r="40" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="7" t="e">
+        <f t="shared" ref="C40:H40" si="18">+C25/C24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D40" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E40" s="7">
+        <f t="shared" si="18"/>
+        <v>0.24314615756315941</v>
+      </c>
+      <c r="F40" s="7">
+        <f t="shared" si="18"/>
+        <v>0.25418196017180811</v>
+      </c>
+      <c r="G40" s="7">
+        <f t="shared" si="18"/>
+        <v>0.23624335353035747</v>
+      </c>
+      <c r="H40" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="7">
+        <f>+I25/I24</f>
+        <v>0.24236556923258129</v>
+      </c>
+      <c r="J40" s="7">
+        <f>+J25/J24</f>
+        <v>8.1012329457778989E-2</v>
+      </c>
+      <c r="K40" s="7">
+        <f>+K25/K24</f>
+        <v>0.21416913892777611</v>
+      </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
@@ -3396,7 +3119,7 @@
       <c r="BG40" s="3"/>
       <c r="BH40" s="3"/>
     </row>
-    <row r="41" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -3456,7 +3179,7 @@
       <c r="BG41" s="3"/>
       <c r="BH41" s="3"/>
     </row>
-    <row r="42" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -3516,7 +3239,7 @@
       <c r="BG42" s="3"/>
       <c r="BH42" s="3"/>
     </row>
-    <row r="43" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -3576,7 +3299,7 @@
       <c r="BG43" s="3"/>
       <c r="BH43" s="3"/>
     </row>
-    <row r="44" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3636,7 +3359,7 @@
       <c r="BG44" s="3"/>
       <c r="BH44" s="3"/>
     </row>
-    <row r="45" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3696,7 +3419,7 @@
       <c r="BG45" s="3"/>
       <c r="BH45" s="3"/>
     </row>
-    <row r="46" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3756,7 +3479,7 @@
       <c r="BG46" s="3"/>
       <c r="BH46" s="3"/>
     </row>
-    <row r="47" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3816,7 +3539,7 @@
       <c r="BG47" s="3"/>
       <c r="BH47" s="3"/>
     </row>
-    <row r="48" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -21336,6 +21059,546 @@
       <c r="BG339" s="3"/>
       <c r="BH339" s="3"/>
     </row>
+    <row r="340" spans="3:60" x14ac:dyDescent="0.25">
+      <c r="C340" s="3"/>
+      <c r="D340" s="3"/>
+      <c r="E340" s="3"/>
+      <c r="F340" s="3"/>
+      <c r="G340" s="3"/>
+      <c r="H340" s="3"/>
+      <c r="I340" s="3"/>
+      <c r="J340" s="3"/>
+      <c r="K340" s="3"/>
+      <c r="L340" s="3"/>
+      <c r="M340" s="3"/>
+      <c r="N340" s="3"/>
+      <c r="O340" s="3"/>
+      <c r="P340" s="3"/>
+      <c r="Q340" s="3"/>
+      <c r="R340" s="3"/>
+      <c r="S340" s="3"/>
+      <c r="T340" s="3"/>
+      <c r="U340" s="3"/>
+      <c r="V340" s="3"/>
+      <c r="W340" s="3"/>
+      <c r="X340" s="3"/>
+      <c r="Y340" s="3"/>
+      <c r="Z340" s="3"/>
+      <c r="AA340" s="3"/>
+      <c r="AB340" s="3"/>
+      <c r="AC340" s="3"/>
+      <c r="AD340" s="3"/>
+      <c r="AE340" s="3"/>
+      <c r="AF340" s="3"/>
+      <c r="AG340" s="3"/>
+      <c r="AH340" s="3"/>
+      <c r="AI340" s="3"/>
+      <c r="AJ340" s="3"/>
+      <c r="AK340" s="3"/>
+      <c r="AL340" s="3"/>
+      <c r="AM340" s="3"/>
+      <c r="AN340" s="3"/>
+      <c r="AO340" s="3"/>
+      <c r="AP340" s="3"/>
+      <c r="AQ340" s="3"/>
+      <c r="AR340" s="3"/>
+      <c r="AS340" s="3"/>
+      <c r="AT340" s="3"/>
+      <c r="AU340" s="3"/>
+      <c r="AV340" s="3"/>
+      <c r="AW340" s="3"/>
+      <c r="AX340" s="3"/>
+      <c r="AY340" s="3"/>
+      <c r="AZ340" s="3"/>
+      <c r="BA340" s="3"/>
+      <c r="BB340" s="3"/>
+      <c r="BC340" s="3"/>
+      <c r="BD340" s="3"/>
+      <c r="BE340" s="3"/>
+      <c r="BF340" s="3"/>
+      <c r="BG340" s="3"/>
+      <c r="BH340" s="3"/>
+    </row>
+    <row r="341" spans="3:60" x14ac:dyDescent="0.25">
+      <c r="C341" s="3"/>
+      <c r="D341" s="3"/>
+      <c r="E341" s="3"/>
+      <c r="F341" s="3"/>
+      <c r="G341" s="3"/>
+      <c r="H341" s="3"/>
+      <c r="I341" s="3"/>
+      <c r="J341" s="3"/>
+      <c r="K341" s="3"/>
+      <c r="L341" s="3"/>
+      <c r="M341" s="3"/>
+      <c r="N341" s="3"/>
+      <c r="O341" s="3"/>
+      <c r="P341" s="3"/>
+      <c r="Q341" s="3"/>
+      <c r="R341" s="3"/>
+      <c r="S341" s="3"/>
+      <c r="T341" s="3"/>
+      <c r="U341" s="3"/>
+      <c r="V341" s="3"/>
+      <c r="W341" s="3"/>
+      <c r="X341" s="3"/>
+      <c r="Y341" s="3"/>
+      <c r="Z341" s="3"/>
+      <c r="AA341" s="3"/>
+      <c r="AB341" s="3"/>
+      <c r="AC341" s="3"/>
+      <c r="AD341" s="3"/>
+      <c r="AE341" s="3"/>
+      <c r="AF341" s="3"/>
+      <c r="AG341" s="3"/>
+      <c r="AH341" s="3"/>
+      <c r="AI341" s="3"/>
+      <c r="AJ341" s="3"/>
+      <c r="AK341" s="3"/>
+      <c r="AL341" s="3"/>
+      <c r="AM341" s="3"/>
+      <c r="AN341" s="3"/>
+      <c r="AO341" s="3"/>
+      <c r="AP341" s="3"/>
+      <c r="AQ341" s="3"/>
+      <c r="AR341" s="3"/>
+      <c r="AS341" s="3"/>
+      <c r="AT341" s="3"/>
+      <c r="AU341" s="3"/>
+      <c r="AV341" s="3"/>
+      <c r="AW341" s="3"/>
+      <c r="AX341" s="3"/>
+      <c r="AY341" s="3"/>
+      <c r="AZ341" s="3"/>
+      <c r="BA341" s="3"/>
+      <c r="BB341" s="3"/>
+      <c r="BC341" s="3"/>
+      <c r="BD341" s="3"/>
+      <c r="BE341" s="3"/>
+      <c r="BF341" s="3"/>
+      <c r="BG341" s="3"/>
+      <c r="BH341" s="3"/>
+    </row>
+    <row r="342" spans="3:60" x14ac:dyDescent="0.25">
+      <c r="C342" s="3"/>
+      <c r="D342" s="3"/>
+      <c r="E342" s="3"/>
+      <c r="F342" s="3"/>
+      <c r="G342" s="3"/>
+      <c r="H342" s="3"/>
+      <c r="I342" s="3"/>
+      <c r="J342" s="3"/>
+      <c r="K342" s="3"/>
+      <c r="L342" s="3"/>
+      <c r="M342" s="3"/>
+      <c r="N342" s="3"/>
+      <c r="O342" s="3"/>
+      <c r="P342" s="3"/>
+      <c r="Q342" s="3"/>
+      <c r="R342" s="3"/>
+      <c r="S342" s="3"/>
+      <c r="T342" s="3"/>
+      <c r="U342" s="3"/>
+      <c r="V342" s="3"/>
+      <c r="W342" s="3"/>
+      <c r="X342" s="3"/>
+      <c r="Y342" s="3"/>
+      <c r="Z342" s="3"/>
+      <c r="AA342" s="3"/>
+      <c r="AB342" s="3"/>
+      <c r="AC342" s="3"/>
+      <c r="AD342" s="3"/>
+      <c r="AE342" s="3"/>
+      <c r="AF342" s="3"/>
+      <c r="AG342" s="3"/>
+      <c r="AH342" s="3"/>
+      <c r="AI342" s="3"/>
+      <c r="AJ342" s="3"/>
+      <c r="AK342" s="3"/>
+      <c r="AL342" s="3"/>
+      <c r="AM342" s="3"/>
+      <c r="AN342" s="3"/>
+      <c r="AO342" s="3"/>
+      <c r="AP342" s="3"/>
+      <c r="AQ342" s="3"/>
+      <c r="AR342" s="3"/>
+      <c r="AS342" s="3"/>
+      <c r="AT342" s="3"/>
+      <c r="AU342" s="3"/>
+      <c r="AV342" s="3"/>
+      <c r="AW342" s="3"/>
+      <c r="AX342" s="3"/>
+      <c r="AY342" s="3"/>
+      <c r="AZ342" s="3"/>
+      <c r="BA342" s="3"/>
+      <c r="BB342" s="3"/>
+      <c r="BC342" s="3"/>
+      <c r="BD342" s="3"/>
+      <c r="BE342" s="3"/>
+      <c r="BF342" s="3"/>
+      <c r="BG342" s="3"/>
+      <c r="BH342" s="3"/>
+    </row>
+    <row r="343" spans="3:60" x14ac:dyDescent="0.25">
+      <c r="C343" s="3"/>
+      <c r="D343" s="3"/>
+      <c r="E343" s="3"/>
+      <c r="F343" s="3"/>
+      <c r="G343" s="3"/>
+      <c r="H343" s="3"/>
+      <c r="I343" s="3"/>
+      <c r="J343" s="3"/>
+      <c r="K343" s="3"/>
+      <c r="L343" s="3"/>
+      <c r="M343" s="3"/>
+      <c r="N343" s="3"/>
+      <c r="O343" s="3"/>
+      <c r="P343" s="3"/>
+      <c r="Q343" s="3"/>
+      <c r="R343" s="3"/>
+      <c r="S343" s="3"/>
+      <c r="T343" s="3"/>
+      <c r="U343" s="3"/>
+      <c r="V343" s="3"/>
+      <c r="W343" s="3"/>
+      <c r="X343" s="3"/>
+      <c r="Y343" s="3"/>
+      <c r="Z343" s="3"/>
+      <c r="AA343" s="3"/>
+      <c r="AB343" s="3"/>
+      <c r="AC343" s="3"/>
+      <c r="AD343" s="3"/>
+      <c r="AE343" s="3"/>
+      <c r="AF343" s="3"/>
+      <c r="AG343" s="3"/>
+      <c r="AH343" s="3"/>
+      <c r="AI343" s="3"/>
+      <c r="AJ343" s="3"/>
+      <c r="AK343" s="3"/>
+      <c r="AL343" s="3"/>
+      <c r="AM343" s="3"/>
+      <c r="AN343" s="3"/>
+      <c r="AO343" s="3"/>
+      <c r="AP343" s="3"/>
+      <c r="AQ343" s="3"/>
+      <c r="AR343" s="3"/>
+      <c r="AS343" s="3"/>
+      <c r="AT343" s="3"/>
+      <c r="AU343" s="3"/>
+      <c r="AV343" s="3"/>
+      <c r="AW343" s="3"/>
+      <c r="AX343" s="3"/>
+      <c r="AY343" s="3"/>
+      <c r="AZ343" s="3"/>
+      <c r="BA343" s="3"/>
+      <c r="BB343" s="3"/>
+      <c r="BC343" s="3"/>
+      <c r="BD343" s="3"/>
+      <c r="BE343" s="3"/>
+      <c r="BF343" s="3"/>
+      <c r="BG343" s="3"/>
+      <c r="BH343" s="3"/>
+    </row>
+    <row r="344" spans="3:60" x14ac:dyDescent="0.25">
+      <c r="C344" s="3"/>
+      <c r="D344" s="3"/>
+      <c r="E344" s="3"/>
+      <c r="F344" s="3"/>
+      <c r="G344" s="3"/>
+      <c r="H344" s="3"/>
+      <c r="I344" s="3"/>
+      <c r="J344" s="3"/>
+      <c r="K344" s="3"/>
+      <c r="L344" s="3"/>
+      <c r="M344" s="3"/>
+      <c r="N344" s="3"/>
+      <c r="O344" s="3"/>
+      <c r="P344" s="3"/>
+      <c r="Q344" s="3"/>
+      <c r="R344" s="3"/>
+      <c r="S344" s="3"/>
+      <c r="T344" s="3"/>
+      <c r="U344" s="3"/>
+      <c r="V344" s="3"/>
+      <c r="W344" s="3"/>
+      <c r="X344" s="3"/>
+      <c r="Y344" s="3"/>
+      <c r="Z344" s="3"/>
+      <c r="AA344" s="3"/>
+      <c r="AB344" s="3"/>
+      <c r="AC344" s="3"/>
+      <c r="AD344" s="3"/>
+      <c r="AE344" s="3"/>
+      <c r="AF344" s="3"/>
+      <c r="AG344" s="3"/>
+      <c r="AH344" s="3"/>
+      <c r="AI344" s="3"/>
+      <c r="AJ344" s="3"/>
+      <c r="AK344" s="3"/>
+      <c r="AL344" s="3"/>
+      <c r="AM344" s="3"/>
+      <c r="AN344" s="3"/>
+      <c r="AO344" s="3"/>
+      <c r="AP344" s="3"/>
+      <c r="AQ344" s="3"/>
+      <c r="AR344" s="3"/>
+      <c r="AS344" s="3"/>
+      <c r="AT344" s="3"/>
+      <c r="AU344" s="3"/>
+      <c r="AV344" s="3"/>
+      <c r="AW344" s="3"/>
+      <c r="AX344" s="3"/>
+      <c r="AY344" s="3"/>
+      <c r="AZ344" s="3"/>
+      <c r="BA344" s="3"/>
+      <c r="BB344" s="3"/>
+      <c r="BC344" s="3"/>
+      <c r="BD344" s="3"/>
+      <c r="BE344" s="3"/>
+      <c r="BF344" s="3"/>
+      <c r="BG344" s="3"/>
+      <c r="BH344" s="3"/>
+    </row>
+    <row r="345" spans="3:60" x14ac:dyDescent="0.25">
+      <c r="C345" s="3"/>
+      <c r="D345" s="3"/>
+      <c r="E345" s="3"/>
+      <c r="F345" s="3"/>
+      <c r="G345" s="3"/>
+      <c r="H345" s="3"/>
+      <c r="I345" s="3"/>
+      <c r="J345" s="3"/>
+      <c r="K345" s="3"/>
+      <c r="L345" s="3"/>
+      <c r="M345" s="3"/>
+      <c r="N345" s="3"/>
+      <c r="O345" s="3"/>
+      <c r="P345" s="3"/>
+      <c r="Q345" s="3"/>
+      <c r="R345" s="3"/>
+      <c r="S345" s="3"/>
+      <c r="T345" s="3"/>
+      <c r="U345" s="3"/>
+      <c r="V345" s="3"/>
+      <c r="W345" s="3"/>
+      <c r="X345" s="3"/>
+      <c r="Y345" s="3"/>
+      <c r="Z345" s="3"/>
+      <c r="AA345" s="3"/>
+      <c r="AB345" s="3"/>
+      <c r="AC345" s="3"/>
+      <c r="AD345" s="3"/>
+      <c r="AE345" s="3"/>
+      <c r="AF345" s="3"/>
+      <c r="AG345" s="3"/>
+      <c r="AH345" s="3"/>
+      <c r="AI345" s="3"/>
+      <c r="AJ345" s="3"/>
+      <c r="AK345" s="3"/>
+      <c r="AL345" s="3"/>
+      <c r="AM345" s="3"/>
+      <c r="AN345" s="3"/>
+      <c r="AO345" s="3"/>
+      <c r="AP345" s="3"/>
+      <c r="AQ345" s="3"/>
+      <c r="AR345" s="3"/>
+      <c r="AS345" s="3"/>
+      <c r="AT345" s="3"/>
+      <c r="AU345" s="3"/>
+      <c r="AV345" s="3"/>
+      <c r="AW345" s="3"/>
+      <c r="AX345" s="3"/>
+      <c r="AY345" s="3"/>
+      <c r="AZ345" s="3"/>
+      <c r="BA345" s="3"/>
+      <c r="BB345" s="3"/>
+      <c r="BC345" s="3"/>
+      <c r="BD345" s="3"/>
+      <c r="BE345" s="3"/>
+      <c r="BF345" s="3"/>
+      <c r="BG345" s="3"/>
+      <c r="BH345" s="3"/>
+    </row>
+    <row r="346" spans="3:60" x14ac:dyDescent="0.25">
+      <c r="C346" s="3"/>
+      <c r="D346" s="3"/>
+      <c r="E346" s="3"/>
+      <c r="F346" s="3"/>
+      <c r="G346" s="3"/>
+      <c r="H346" s="3"/>
+      <c r="I346" s="3"/>
+      <c r="J346" s="3"/>
+      <c r="K346" s="3"/>
+      <c r="L346" s="3"/>
+      <c r="M346" s="3"/>
+      <c r="N346" s="3"/>
+      <c r="O346" s="3"/>
+      <c r="P346" s="3"/>
+      <c r="Q346" s="3"/>
+      <c r="R346" s="3"/>
+      <c r="S346" s="3"/>
+      <c r="T346" s="3"/>
+      <c r="U346" s="3"/>
+      <c r="V346" s="3"/>
+      <c r="W346" s="3"/>
+      <c r="X346" s="3"/>
+      <c r="Y346" s="3"/>
+      <c r="Z346" s="3"/>
+      <c r="AA346" s="3"/>
+      <c r="AB346" s="3"/>
+      <c r="AC346" s="3"/>
+      <c r="AD346" s="3"/>
+      <c r="AE346" s="3"/>
+      <c r="AF346" s="3"/>
+      <c r="AG346" s="3"/>
+      <c r="AH346" s="3"/>
+      <c r="AI346" s="3"/>
+      <c r="AJ346" s="3"/>
+      <c r="AK346" s="3"/>
+      <c r="AL346" s="3"/>
+      <c r="AM346" s="3"/>
+      <c r="AN346" s="3"/>
+      <c r="AO346" s="3"/>
+      <c r="AP346" s="3"/>
+      <c r="AQ346" s="3"/>
+      <c r="AR346" s="3"/>
+      <c r="AS346" s="3"/>
+      <c r="AT346" s="3"/>
+      <c r="AU346" s="3"/>
+      <c r="AV346" s="3"/>
+      <c r="AW346" s="3"/>
+      <c r="AX346" s="3"/>
+      <c r="AY346" s="3"/>
+      <c r="AZ346" s="3"/>
+      <c r="BA346" s="3"/>
+      <c r="BB346" s="3"/>
+      <c r="BC346" s="3"/>
+      <c r="BD346" s="3"/>
+      <c r="BE346" s="3"/>
+      <c r="BF346" s="3"/>
+      <c r="BG346" s="3"/>
+      <c r="BH346" s="3"/>
+    </row>
+    <row r="347" spans="3:60" x14ac:dyDescent="0.25">
+      <c r="C347" s="3"/>
+      <c r="D347" s="3"/>
+      <c r="E347" s="3"/>
+      <c r="F347" s="3"/>
+      <c r="G347" s="3"/>
+      <c r="H347" s="3"/>
+      <c r="I347" s="3"/>
+      <c r="J347" s="3"/>
+      <c r="K347" s="3"/>
+      <c r="L347" s="3"/>
+      <c r="M347" s="3"/>
+      <c r="N347" s="3"/>
+      <c r="O347" s="3"/>
+      <c r="P347" s="3"/>
+      <c r="Q347" s="3"/>
+      <c r="R347" s="3"/>
+      <c r="S347" s="3"/>
+      <c r="T347" s="3"/>
+      <c r="U347" s="3"/>
+      <c r="V347" s="3"/>
+      <c r="W347" s="3"/>
+      <c r="X347" s="3"/>
+      <c r="Y347" s="3"/>
+      <c r="Z347" s="3"/>
+      <c r="AA347" s="3"/>
+      <c r="AB347" s="3"/>
+      <c r="AC347" s="3"/>
+      <c r="AD347" s="3"/>
+      <c r="AE347" s="3"/>
+      <c r="AF347" s="3"/>
+      <c r="AG347" s="3"/>
+      <c r="AH347" s="3"/>
+      <c r="AI347" s="3"/>
+      <c r="AJ347" s="3"/>
+      <c r="AK347" s="3"/>
+      <c r="AL347" s="3"/>
+      <c r="AM347" s="3"/>
+      <c r="AN347" s="3"/>
+      <c r="AO347" s="3"/>
+      <c r="AP347" s="3"/>
+      <c r="AQ347" s="3"/>
+      <c r="AR347" s="3"/>
+      <c r="AS347" s="3"/>
+      <c r="AT347" s="3"/>
+      <c r="AU347" s="3"/>
+      <c r="AV347" s="3"/>
+      <c r="AW347" s="3"/>
+      <c r="AX347" s="3"/>
+      <c r="AY347" s="3"/>
+      <c r="AZ347" s="3"/>
+      <c r="BA347" s="3"/>
+      <c r="BB347" s="3"/>
+      <c r="BC347" s="3"/>
+      <c r="BD347" s="3"/>
+      <c r="BE347" s="3"/>
+      <c r="BF347" s="3"/>
+      <c r="BG347" s="3"/>
+      <c r="BH347" s="3"/>
+    </row>
+    <row r="348" spans="3:60" x14ac:dyDescent="0.25">
+      <c r="C348" s="3"/>
+      <c r="D348" s="3"/>
+      <c r="E348" s="3"/>
+      <c r="F348" s="3"/>
+      <c r="G348" s="3"/>
+      <c r="H348" s="3"/>
+      <c r="I348" s="3"/>
+      <c r="J348" s="3"/>
+      <c r="K348" s="3"/>
+      <c r="L348" s="3"/>
+      <c r="M348" s="3"/>
+      <c r="N348" s="3"/>
+      <c r="O348" s="3"/>
+      <c r="P348" s="3"/>
+      <c r="Q348" s="3"/>
+      <c r="R348" s="3"/>
+      <c r="S348" s="3"/>
+      <c r="T348" s="3"/>
+      <c r="U348" s="3"/>
+      <c r="V348" s="3"/>
+      <c r="W348" s="3"/>
+      <c r="X348" s="3"/>
+      <c r="Y348" s="3"/>
+      <c r="Z348" s="3"/>
+      <c r="AA348" s="3"/>
+      <c r="AB348" s="3"/>
+      <c r="AC348" s="3"/>
+      <c r="AD348" s="3"/>
+      <c r="AE348" s="3"/>
+      <c r="AF348" s="3"/>
+      <c r="AG348" s="3"/>
+      <c r="AH348" s="3"/>
+      <c r="AI348" s="3"/>
+      <c r="AJ348" s="3"/>
+      <c r="AK348" s="3"/>
+      <c r="AL348" s="3"/>
+      <c r="AM348" s="3"/>
+      <c r="AN348" s="3"/>
+      <c r="AO348" s="3"/>
+      <c r="AP348" s="3"/>
+      <c r="AQ348" s="3"/>
+      <c r="AR348" s="3"/>
+      <c r="AS348" s="3"/>
+      <c r="AT348" s="3"/>
+      <c r="AU348" s="3"/>
+      <c r="AV348" s="3"/>
+      <c r="AW348" s="3"/>
+      <c r="AX348" s="3"/>
+      <c r="AY348" s="3"/>
+      <c r="AZ348" s="3"/>
+      <c r="BA348" s="3"/>
+      <c r="BB348" s="3"/>
+      <c r="BC348" s="3"/>
+      <c r="BD348" s="3"/>
+      <c r="BE348" s="3"/>
+      <c r="BF348" s="3"/>
+      <c r="BG348" s="3"/>
+      <c r="BH348" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{AFB9ED4F-CDB6-4C54-90B7-79A04B67C0D0}"/>

--- a/URBN.xlsx
+++ b/URBN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0E0AC2-E1B0-43A8-8BDC-EE57D4E54346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEB6DA6-6971-4EE3-A5BE-65A5605971AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{74F0CBED-AE29-49BC-826C-5A327DCF0A9C}"/>
   </bookViews>
@@ -641,7 +641,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,7 +662,7 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>73.099999999999994</v>
+        <v>73.89</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -685,7 +685,7 @@
       </c>
       <c r="J4" s="3">
         <f>+J2*J3</f>
-        <v>6707.1010247999993</v>
+        <v>6779.5854271200005</v>
       </c>
       <c r="K4" s="5"/>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="J7" s="3">
         <f>+J4-J5+J6</f>
-        <v>6232.0830247999993</v>
+        <v>6304.5674271200005</v>
       </c>
     </row>
   </sheetData>
@@ -737,10 +737,10 @@
   <dimension ref="A1:BH348"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +812,9 @@
       <c r="J3" s="15">
         <v>255</v>
       </c>
-      <c r="K3" s="15"/>
+      <c r="K3" s="15">
+        <v>255</v>
+      </c>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
@@ -841,7 +843,9 @@
       <c r="J4" s="15">
         <v>239</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="15">
+        <v>239</v>
+      </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
@@ -872,7 +876,9 @@
         <f>167+63</f>
         <v>230</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="K5" s="15">
+        <v>230</v>
+      </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
@@ -901,7 +907,9 @@
       <c r="J6" s="15">
         <v>9</v>
       </c>
-      <c r="K6" s="15"/>
+      <c r="K6" s="15">
+        <v>9</v>
+      </c>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
@@ -949,7 +957,7 @@
       </c>
       <c r="K7" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>733</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" si="1"/>
@@ -988,7 +996,9 @@
       <c r="J8" s="15">
         <v>9</v>
       </c>
-      <c r="K8" s="15"/>
+      <c r="K8" s="15">
+        <v>9</v>
+      </c>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>

--- a/URBN.xlsx
+++ b/URBN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEB6DA6-6971-4EE3-A5BE-65A5605971AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61836981-F721-4834-B906-FEB8066EA6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{74F0CBED-AE29-49BC-826C-5A327DCF0A9C}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{74F0CBED-AE29-49BC-826C-5A327DCF0A9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="167" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,14 +229,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -250,6 +248,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -271,37 +283,38 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -640,88 +653,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1365A65-7955-473E-AB8C-4FB37DA242DC}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2">
-        <v>73.89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
+      <c r="J2" s="2">
+        <v>70.83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="3">
-        <v>91.752408000000003</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+        <v>89.667451</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="3">
         <f>+J2*J3</f>
-        <v>6779.5854271200005</v>
-      </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+        <v>6351.1455543299999</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="3">
-        <f>189.433+285.585</f>
-        <v>475.01799999999997</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I6" t="s">
+        <f>332.171+290.664</f>
+        <v>622.83500000000004</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I7" t="s">
+      <c r="K6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="3">
         <f>+J4-J5+J6</f>
-        <v>6304.5674271200005</v>
+        <v>5728.3105543299998</v>
       </c>
     </row>
   </sheetData>
@@ -736,591 +750,628 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4758D4-685D-4455-97E5-6E84929D73B9}">
   <dimension ref="A1:BH348"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
         <v>262</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="6">
         <v>262</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6">
         <v>264</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="6">
         <v>255</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="6">
         <v>255</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
         <v>237</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="6">
         <v>237</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6">
         <v>242</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="6">
         <v>239</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="6">
         <v>239</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
         <f>160+38</f>
         <v>198</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="6">
         <v>198</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6">
         <v>216</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="6">
         <f>167+63</f>
         <v>230</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="6">
         <v>230</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
         <v>9</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="6">
         <v>9</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6">
         <v>9</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="6">
         <v>9</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="6">
         <v>9</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-    </row>
-    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="8">
         <f t="shared" ref="C7:H7" si="0">+SUM(C3:C6)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="8">
         <f t="shared" si="0"/>
         <v>706</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>706</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="8">
         <f>+SUM(I3:I6)</f>
         <v>731</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="8">
         <f t="shared" ref="J7:N7" si="1">+SUM(J3:J6)</f>
         <v>733</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="8">
         <f t="shared" si="1"/>
         <v>733</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
         <v>9</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="6">
         <v>9</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6">
         <v>9</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="6">
         <v>9</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="6">
         <v>9</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="12">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10">
         <v>549.81899999999996</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <v>679.524</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>526.38499999999999</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12">
+      <c r="H10" s="10">
+        <v>569.1</v>
+      </c>
+      <c r="I10" s="10">
         <v>587.923</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="10">
         <v>743.03</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="7">
         <v>569.93100000000004</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="L10" s="7">
+        <v>606.95399999999995</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="12">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10">
         <v>331.77199999999999</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="10">
         <v>362.26600000000002</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <v>318.69099999999997</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12">
+      <c r="H11" s="10">
+        <v>365.12900000000002</v>
+      </c>
+      <c r="I11" s="10">
         <v>365.85700000000003</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="10">
         <v>310.61799999999999</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="7">
         <v>353.11200000000002</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="L11" s="7">
+        <v>415.01400000000001</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="12">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10">
         <v>324.375</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <v>372.56599999999997</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <v>270.25799999999998</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12">
+      <c r="H12" s="10">
+        <v>316.71499999999997</v>
+      </c>
+      <c r="I12" s="10">
         <v>300.577</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="10">
         <v>360.19200000000001</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="7">
         <v>273.505</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="L12" s="7">
+        <v>333.17099999999999</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="12">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10">
         <v>65.516000000000005</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <v>63.08</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <v>77.941999999999993</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12">
+      <c r="H13" s="10">
+        <v>90.695999999999998</v>
+      </c>
+      <c r="I13" s="10">
         <v>97.231999999999999</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="10">
         <v>122.524</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="7">
         <v>124.354</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="L13" s="7">
+        <v>138.93199999999999</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="12">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10">
         <v>9.6920000000000002</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>8.7579999999999991</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <v>7.4560000000000004</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12">
+      <c r="H14" s="10">
+        <v>10.319000000000001</v>
+      </c>
+      <c r="I14" s="10">
         <v>10.266</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="10">
         <v>9.7560000000000002</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="7">
         <v>8.5990000000000002</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="L14" s="7">
+        <v>10.683999999999999</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="12">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10">
         <v>1145.7660000000001</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="10">
         <v>1368.742</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>1062.6849999999999</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12">
+      <c r="H15" s="10">
+        <v>1196.4559999999999</v>
+      </c>
+      <c r="I15" s="10">
         <v>1182.557</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="10">
         <v>1454.9960000000001</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="7">
         <v>1130.51</v>
       </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="L15" s="7">
+        <v>1289.269</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="12">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10">
         <v>65.516000000000005</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <v>63.08</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>77.941999999999993</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12">
+      <c r="H16" s="10">
+        <v>90.695999999999998</v>
+      </c>
+      <c r="I16" s="10">
         <v>97.231999999999999</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="10">
         <v>112.524</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="7">
         <v>124.53400000000001</v>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-    </row>
-    <row r="17" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="L16" s="7">
+        <v>138.93199999999999</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="12">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10">
         <v>69.891999999999996</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="10">
         <v>54.372</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="10">
         <v>60.104999999999997</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12">
+      <c r="H17" s="10">
+        <v>64.807000000000002</v>
+      </c>
+      <c r="I17" s="10">
         <v>82.066000000000003</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="10">
         <v>68.599999999999994</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="7">
         <v>74.637</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-    </row>
-    <row r="18" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="L17" s="7">
+        <v>76.554000000000002</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+    </row>
+    <row r="18" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="14">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="9">
         <v>1281.174</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="9">
         <v>1486.194</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="9">
         <v>1200.732</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14">
+      <c r="H18" s="9">
+        <v>1351.9590000000001</v>
+      </c>
+      <c r="I18" s="9">
         <v>1361.855</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="9">
         <v>1636.12</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="9">
         <v>1329.501</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
+      <c r="L18" s="9">
+        <v>1504.7550000000001</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -1364,41 +1415,43 @@
       <c r="BG18" s="3"/>
       <c r="BH18" s="3"/>
     </row>
-    <row r="19" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="13">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="7">
         <f>825.375+1.392</f>
         <v>826.76700000000005</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="7">
         <f>1041.526+10.483</f>
         <v>1052.009</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="7">
         <f>787.746+4.601</f>
         <v>792.34699999999998</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13">
+      <c r="H19" s="7"/>
+      <c r="I19" s="7">
         <v>864.53599999999994</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="7">
         <v>1108.4390000000001</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="7">
         <v>840.43700000000001</v>
       </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
+      <c r="L19" s="7">
+        <v>938.59400000000005</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
@@ -1442,8 +1495,8 @@
       <c r="BG19" s="3"/>
       <c r="BH19" s="3"/>
     </row>
-    <row r="20" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="3">
@@ -1468,21 +1521,24 @@
       </c>
       <c r="H20" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1351.9590000000001</v>
       </c>
       <c r="I20" s="3">
         <f>+I18-I19</f>
         <v>497.31900000000007</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" ref="J20:K20" si="3">+J18-J19</f>
+        <f t="shared" ref="J20:L20" si="3">+J18-J19</f>
         <v>527.68099999999981</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="3"/>
         <v>489.06399999999996</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3">
+        <f t="shared" si="3"/>
+        <v>566.16100000000006</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -1532,8 +1588,8 @@
       <c r="BG20" s="3"/>
       <c r="BH20" s="3"/>
     </row>
-    <row r="21" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="3"/>
@@ -1558,7 +1614,9 @@
       <c r="K21" s="3">
         <v>360.84699999999998</v>
       </c>
-      <c r="L21" s="3"/>
+      <c r="L21" s="3">
+        <v>391.774</v>
+      </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -1608,8 +1666,8 @@
       <c r="BG21" s="3"/>
       <c r="BH21" s="3"/>
     </row>
-    <row r="22" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="3">
@@ -1634,21 +1692,24 @@
       </c>
       <c r="H22" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1351.9590000000001</v>
       </c>
       <c r="I22" s="3">
         <f>+I20-I21</f>
         <v>128.69100000000009</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" ref="J22:K22" si="5">+J20-J21</f>
+        <f t="shared" ref="J22:L22" si="5">+J20-J21</f>
         <v>125.31399999999979</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" si="5"/>
         <v>128.21699999999998</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="3">
+        <f t="shared" si="5"/>
+        <v>174.38700000000006</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -1698,8 +1759,8 @@
       <c r="BG22" s="3"/>
       <c r="BH22" s="3"/>
     </row>
-    <row r="23" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="3"/>
@@ -1723,7 +1784,9 @@
       <c r="K23" s="3">
         <v>9.6460000000000008</v>
       </c>
-      <c r="L23" s="3"/>
+      <c r="L23" s="3">
+        <v>8.8859999999999992</v>
+      </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -1773,8 +1836,8 @@
       <c r="BG23" s="3"/>
       <c r="BH23" s="3"/>
     </row>
-    <row r="24" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="3">
@@ -1799,21 +1862,24 @@
       </c>
       <c r="H24" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1351.9590000000001</v>
       </c>
       <c r="I24" s="3">
         <f>+I22+I23</f>
         <v>135.83200000000008</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" ref="J24:K24" si="7">+J22+J23</f>
+        <f t="shared" ref="J24:L24" si="7">+J22+J23</f>
         <v>130.90599999999981</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" si="7"/>
         <v>137.863</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="L24" s="3">
+        <f t="shared" si="7"/>
+        <v>183.27300000000005</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -1863,8 +1929,8 @@
       <c r="BG24" s="3"/>
       <c r="BH24" s="3"/>
     </row>
-    <row r="25" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="3"/>
@@ -1888,7 +1954,9 @@
       <c r="K25" s="3">
         <v>29.526</v>
       </c>
-      <c r="L25" s="3"/>
+      <c r="L25" s="3">
+        <v>39.408000000000001</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -1938,8 +2006,8 @@
       <c r="BG25" s="3"/>
       <c r="BH25" s="3"/>
     </row>
-    <row r="26" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="3">
@@ -1964,21 +2032,24 @@
       </c>
       <c r="H26" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1351.9590000000001</v>
       </c>
       <c r="I26" s="3">
         <f>+I24-I25</f>
         <v>102.91100000000009</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" ref="J26:K26" si="9">+J24-J25</f>
+        <f t="shared" ref="J26:L26" si="9">+J24-J25</f>
         <v>120.3009999999998</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="9"/>
         <v>108.337</v>
       </c>
-      <c r="L26" s="3"/>
+      <c r="L26" s="3">
+        <f t="shared" si="9"/>
+        <v>143.86500000000007</v>
+      </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -2028,7 +2099,7 @@
       <c r="BG26" s="3"/>
       <c r="BH26" s="3"/>
     </row>
-    <row r="27" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2088,47 +2159,50 @@
       <c r="BG27" s="3"/>
       <c r="BH27" s="3"/>
     </row>
-    <row r="28" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="2" t="e">
+      <c r="C28" s="14" t="e">
         <f t="shared" ref="C28:H28" si="10">+C26/C29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D28" s="2" t="e">
+      <c r="D28" s="14" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="14">
         <f t="shared" si="10"/>
         <v>0.89473314805349191</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="14">
         <f t="shared" si="10"/>
         <v>0.51463372102672778</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="14">
         <f t="shared" si="10"/>
         <v>0.66325139892192531</v>
       </c>
-      <c r="H28" s="2" t="e">
+      <c r="H28" s="14" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="14">
         <f>+I26/I29</f>
         <v>1.1153175438373473</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="14">
         <f t="shared" ref="J28:K28" si="11">+J26/J29</f>
         <v>1.3036594728452351</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="14">
         <f t="shared" si="11"/>
         <v>1.1807537519887217</v>
       </c>
-      <c r="L28" s="3"/>
+      <c r="L28" s="14">
+        <f>+L26/L29</f>
+        <v>1.6044283449074521</v>
+      </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -2178,8 +2252,8 @@
       <c r="BG28" s="3"/>
       <c r="BH28" s="3"/>
     </row>
-    <row r="29" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="3"/>
@@ -2203,7 +2277,9 @@
       <c r="K29" s="3">
         <v>91.752408000000003</v>
       </c>
-      <c r="L29" s="3"/>
+      <c r="L29" s="3">
+        <v>89.667451</v>
+      </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -2253,7 +2329,7 @@
       <c r="BG29" s="3"/>
       <c r="BH29" s="3"/>
     </row>
-    <row r="30" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2313,35 +2389,38 @@
       <c r="BG30" s="3"/>
       <c r="BH30" s="3"/>
     </row>
-    <row r="31" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="7" t="e">
+      <c r="G31" s="15" t="e">
         <f t="shared" ref="G31:H31" si="12">+G7/C7-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="7" t="e">
+      <c r="H31" s="15" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="15">
         <f>+I7/E7-1</f>
         <v>3.5410764872521261E-2</v>
       </c>
-      <c r="J31" s="7">
-        <f t="shared" ref="J31:K31" si="13">+J7/F7-1</f>
+      <c r="J31" s="15">
+        <f t="shared" ref="J31:L31" si="13">+J7/F7-1</f>
         <v>3.82436260623229E-2</v>
       </c>
-      <c r="K31" s="7" t="e">
+      <c r="K31" s="15" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L31" s="3"/>
+      <c r="L31" s="15" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -2391,35 +2470,38 @@
       <c r="BG31" s="3"/>
       <c r="BH31" s="3"/>
     </row>
-    <row r="32" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7" t="e">
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15" t="e">
         <f t="shared" ref="G32:J36" si="14">+G10/C10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="7" t="e">
+      <c r="H32" s="15" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="15">
         <f t="shared" si="14"/>
         <v>6.930280692373314E-2</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="15">
         <f t="shared" si="14"/>
         <v>9.345659608784973E-2</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="15">
         <f>+K10/G10-1</f>
         <v>8.272652146242776E-2</v>
       </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="15">
+        <f>+L10/H10-1</f>
+        <v>6.6515550869794327E-2</v>
+      </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -2469,35 +2551,38 @@
       <c r="BG32" s="3"/>
       <c r="BH32" s="3"/>
     </row>
-    <row r="33" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7" t="e">
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="7" t="e">
+      <c r="H33" s="15" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="15">
         <f t="shared" si="14"/>
         <v>0.10273621643779474</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="15">
         <f t="shared" si="14"/>
         <v>-0.14256927230267269</v>
       </c>
-      <c r="K33" s="7">
-        <f t="shared" ref="K33:K36" si="15">+K11/G11-1</f>
+      <c r="K33" s="15">
+        <f t="shared" ref="K33:L36" si="15">+K11/G11-1</f>
         <v>0.10800744294630249</v>
       </c>
-      <c r="L33" s="3"/>
+      <c r="L33" s="15">
+        <f t="shared" si="15"/>
+        <v>0.1366229469584721</v>
+      </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -2547,35 +2632,38 @@
       <c r="BG33" s="3"/>
       <c r="BH33" s="3"/>
     </row>
-    <row r="34" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7" t="e">
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="7" t="e">
+      <c r="H34" s="15" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="15">
         <f t="shared" si="14"/>
         <v>-7.3365703275529826E-2</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="15">
         <f t="shared" si="14"/>
         <v>-3.3212907243280299E-2</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="15">
         <f t="shared" si="15"/>
         <v>1.2014445455823752E-2</v>
       </c>
-      <c r="L34" s="3"/>
+      <c r="L34" s="15">
+        <f t="shared" si="15"/>
+        <v>5.1958385299085919E-2</v>
+      </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -2625,35 +2713,38 @@
       <c r="BG34" s="3"/>
       <c r="BH34" s="3"/>
     </row>
-    <row r="35" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7" t="e">
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="7" t="e">
+      <c r="H35" s="15" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="15">
         <f t="shared" si="14"/>
         <v>0.48409548812503811</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="15">
         <f t="shared" si="14"/>
         <v>0.94235890932149657</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="15">
         <f t="shared" si="15"/>
         <v>0.59546842523928056</v>
       </c>
-      <c r="L35" s="3"/>
+      <c r="L35" s="15">
+        <f t="shared" si="15"/>
+        <v>0.53184263914615859</v>
+      </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -2703,35 +2794,38 @@
       <c r="BG35" s="3"/>
       <c r="BH35" s="3"/>
     </row>
-    <row r="36" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7" t="e">
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="7" t="e">
+      <c r="H36" s="15" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="15">
         <f t="shared" si="14"/>
         <v>5.9224102352455565E-2</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="15">
         <f t="shared" si="14"/>
         <v>0.11395295729618637</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="15">
         <f t="shared" si="15"/>
         <v>0.15329935622317592</v>
       </c>
-      <c r="L36" s="3"/>
+      <c r="L36" s="15">
+        <f t="shared" si="15"/>
+        <v>3.5371644539199387E-2</v>
+      </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -2781,35 +2875,38 @@
       <c r="BG36" s="3"/>
       <c r="BH36" s="3"/>
     </row>
-    <row r="37" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="8" t="e">
-        <f>+G18/C18-1</f>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17" t="e">
+        <f t="shared" ref="G37:L37" si="16">+G18/C18-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="8" t="e">
-        <f>+H18/D18-1</f>
+      <c r="H37" s="17" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" s="8">
-        <f>+I18/E18-1</f>
+      <c r="I37" s="17">
+        <f t="shared" si="16"/>
         <v>6.2974272034868051E-2</v>
       </c>
-      <c r="J37" s="8">
-        <f>+J18/F18-1</f>
+      <c r="J37" s="17">
+        <f t="shared" si="16"/>
         <v>0.10087915844095718</v>
       </c>
-      <c r="K37" s="8">
-        <f>+K18/G18-1</f>
+      <c r="K37" s="17">
+        <f t="shared" si="16"/>
         <v>0.10724208232977883</v>
       </c>
-      <c r="L37" s="3"/>
+      <c r="L37" s="17">
+        <f t="shared" si="16"/>
+        <v>0.11301822022709263</v>
+      </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -2859,47 +2956,50 @@
       <c r="BG37" s="3"/>
       <c r="BH37" s="3"/>
     </row>
-    <row r="38" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="7" t="e">
-        <f t="shared" ref="C38:H38" si="16">+C20/C18</f>
+      <c r="C38" s="15" t="e">
+        <f t="shared" ref="C38:H38" si="17">+C20/C18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="7" t="e">
-        <f t="shared" si="16"/>
+      <c r="D38" s="15" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="7">
-        <f t="shared" si="16"/>
+      <c r="E38" s="15">
+        <f t="shared" si="17"/>
         <v>0.35468016054025442</v>
       </c>
-      <c r="F38" s="7">
-        <f t="shared" si="16"/>
+      <c r="F38" s="15">
+        <f t="shared" si="17"/>
         <v>0.29214557453468387</v>
       </c>
-      <c r="G38" s="7">
-        <f t="shared" si="16"/>
+      <c r="G38" s="15">
+        <f t="shared" si="17"/>
         <v>0.34011336418118282</v>
       </c>
-      <c r="H38" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="7">
+      <c r="H38" s="15">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="I38" s="15">
         <f>+I20/I18</f>
         <v>0.36517764372859085</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="15">
         <f>+J20/J18</f>
         <v>0.32251974182822768</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="15">
         <f>+K20/K18</f>
         <v>0.36785530811936207</v>
       </c>
-      <c r="L38" s="3"/>
+      <c r="L38" s="15">
+        <f>+L20/L18</f>
+        <v>0.37624796063146493</v>
+      </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -2949,47 +3049,50 @@
       <c r="BG38" s="3"/>
       <c r="BH38" s="3"/>
     </row>
-    <row r="39" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="7" t="e">
-        <f t="shared" ref="C39:H39" si="17">+C22/C18</f>
+      <c r="C39" s="15" t="e">
+        <f t="shared" ref="C39:H39" si="18">+C22/C18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D39" s="7" t="e">
-        <f t="shared" si="17"/>
+      <c r="D39" s="15" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="7">
-        <f t="shared" si="17"/>
+      <c r="E39" s="15">
+        <f t="shared" si="18"/>
         <v>8.5061045572264155E-2</v>
       </c>
-      <c r="F39" s="7">
-        <f t="shared" si="17"/>
+      <c r="F39" s="15">
+        <f t="shared" si="18"/>
         <v>3.8579081869527097E-2</v>
       </c>
-      <c r="G39" s="7">
-        <f t="shared" si="17"/>
+      <c r="G39" s="15">
+        <f t="shared" si="18"/>
         <v>6.2148755925552052E-2</v>
       </c>
-      <c r="H39" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="7">
+      <c r="H39" s="15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="I39" s="15">
         <f>+I22/I18</f>
         <v>9.4496844377705475E-2</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="15">
         <f>+J22/J18</f>
         <v>7.6592181502579154E-2</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="15">
         <f>+K22/K18</f>
         <v>9.6439942504744247E-2</v>
       </c>
-      <c r="L39" s="3"/>
+      <c r="L39" s="15">
+        <f>+L22/L18</f>
+        <v>0.1158906267133188</v>
+      </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -3039,47 +3142,50 @@
       <c r="BG39" s="3"/>
       <c r="BH39" s="3"/>
     </row>
-    <row r="40" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="40" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="7" t="e">
-        <f t="shared" ref="C40:H40" si="18">+C25/C24</f>
+      <c r="C40" s="15" t="e">
+        <f t="shared" ref="C40:H40" si="19">+C25/C24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="7" t="e">
-        <f t="shared" si="18"/>
+      <c r="D40" s="15" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="7">
-        <f t="shared" si="18"/>
+      <c r="E40" s="15">
+        <f t="shared" si="19"/>
         <v>0.24314615756315941</v>
       </c>
-      <c r="F40" s="7">
-        <f t="shared" si="18"/>
+      <c r="F40" s="15">
+        <f t="shared" si="19"/>
         <v>0.25418196017180811</v>
       </c>
-      <c r="G40" s="7">
-        <f t="shared" si="18"/>
+      <c r="G40" s="15">
+        <f t="shared" si="19"/>
         <v>0.23624335353035747</v>
       </c>
-      <c r="H40" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="7">
+      <c r="H40" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="15">
         <f>+I25/I24</f>
         <v>0.24236556923258129</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="15">
         <f>+J25/J24</f>
         <v>8.1012329457778989E-2</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="15">
         <f>+K25/K24</f>
         <v>0.21416913892777611</v>
       </c>
-      <c r="L40" s="3"/>
+      <c r="L40" s="15">
+        <f>+L25/L24</f>
+        <v>0.2150234895483786</v>
+      </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -3129,7 +3235,7 @@
       <c r="BG40" s="3"/>
       <c r="BH40" s="3"/>
     </row>
-    <row r="41" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -3189,7 +3295,7 @@
       <c r="BG41" s="3"/>
       <c r="BH41" s="3"/>
     </row>
-    <row r="42" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -3249,7 +3355,7 @@
       <c r="BG42" s="3"/>
       <c r="BH42" s="3"/>
     </row>
-    <row r="43" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -3309,7 +3415,7 @@
       <c r="BG43" s="3"/>
       <c r="BH43" s="3"/>
     </row>
-    <row r="44" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3369,7 +3475,7 @@
       <c r="BG44" s="3"/>
       <c r="BH44" s="3"/>
     </row>
-    <row r="45" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3429,7 +3535,7 @@
       <c r="BG45" s="3"/>
       <c r="BH45" s="3"/>
     </row>
-    <row r="46" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3489,7 +3595,7 @@
       <c r="BG46" s="3"/>
       <c r="BH46" s="3"/>
     </row>
-    <row r="47" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3549,7 +3655,7 @@
       <c r="BG47" s="3"/>
       <c r="BH47" s="3"/>
     </row>
-    <row r="48" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -3609,7 +3715,7 @@
       <c r="BG48" s="3"/>
       <c r="BH48" s="3"/>
     </row>
-    <row r="49" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3669,7 +3775,7 @@
       <c r="BG49" s="3"/>
       <c r="BH49" s="3"/>
     </row>
-    <row r="50" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -3729,7 +3835,7 @@
       <c r="BG50" s="3"/>
       <c r="BH50" s="3"/>
     </row>
-    <row r="51" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -3789,7 +3895,7 @@
       <c r="BG51" s="3"/>
       <c r="BH51" s="3"/>
     </row>
-    <row r="52" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -3849,7 +3955,7 @@
       <c r="BG52" s="3"/>
       <c r="BH52" s="3"/>
     </row>
-    <row r="53" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -3909,7 +4015,7 @@
       <c r="BG53" s="3"/>
       <c r="BH53" s="3"/>
     </row>
-    <row r="54" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -3969,7 +4075,7 @@
       <c r="BG54" s="3"/>
       <c r="BH54" s="3"/>
     </row>
-    <row r="55" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -4029,7 +4135,7 @@
       <c r="BG55" s="3"/>
       <c r="BH55" s="3"/>
     </row>
-    <row r="56" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4089,7 +4195,7 @@
       <c r="BG56" s="3"/>
       <c r="BH56" s="3"/>
     </row>
-    <row r="57" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -4149,7 +4255,7 @@
       <c r="BG57" s="3"/>
       <c r="BH57" s="3"/>
     </row>
-    <row r="58" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -4209,7 +4315,7 @@
       <c r="BG58" s="3"/>
       <c r="BH58" s="3"/>
     </row>
-    <row r="59" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -4269,7 +4375,7 @@
       <c r="BG59" s="3"/>
       <c r="BH59" s="3"/>
     </row>
-    <row r="60" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -4329,7 +4435,7 @@
       <c r="BG60" s="3"/>
       <c r="BH60" s="3"/>
     </row>
-    <row r="61" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -4389,7 +4495,7 @@
       <c r="BG61" s="3"/>
       <c r="BH61" s="3"/>
     </row>
-    <row r="62" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -4449,7 +4555,7 @@
       <c r="BG62" s="3"/>
       <c r="BH62" s="3"/>
     </row>
-    <row r="63" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -4509,7 +4615,7 @@
       <c r="BG63" s="3"/>
       <c r="BH63" s="3"/>
     </row>
-    <row r="64" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -4569,7 +4675,7 @@
       <c r="BG64" s="3"/>
       <c r="BH64" s="3"/>
     </row>
-    <row r="65" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -4629,7 +4735,7 @@
       <c r="BG65" s="3"/>
       <c r="BH65" s="3"/>
     </row>
-    <row r="66" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4689,7 +4795,7 @@
       <c r="BG66" s="3"/>
       <c r="BH66" s="3"/>
     </row>
-    <row r="67" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4749,7 +4855,7 @@
       <c r="BG67" s="3"/>
       <c r="BH67" s="3"/>
     </row>
-    <row r="68" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4809,7 +4915,7 @@
       <c r="BG68" s="3"/>
       <c r="BH68" s="3"/>
     </row>
-    <row r="69" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -4869,7 +4975,7 @@
       <c r="BG69" s="3"/>
       <c r="BH69" s="3"/>
     </row>
-    <row r="70" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -4929,7 +5035,7 @@
       <c r="BG70" s="3"/>
       <c r="BH70" s="3"/>
     </row>
-    <row r="71" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -4989,7 +5095,7 @@
       <c r="BG71" s="3"/>
       <c r="BH71" s="3"/>
     </row>
-    <row r="72" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -5049,7 +5155,7 @@
       <c r="BG72" s="3"/>
       <c r="BH72" s="3"/>
     </row>
-    <row r="73" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -5109,7 +5215,7 @@
       <c r="BG73" s="3"/>
       <c r="BH73" s="3"/>
     </row>
-    <row r="74" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5169,7 +5275,7 @@
       <c r="BG74" s="3"/>
       <c r="BH74" s="3"/>
     </row>
-    <row r="75" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -5229,7 +5335,7 @@
       <c r="BG75" s="3"/>
       <c r="BH75" s="3"/>
     </row>
-    <row r="76" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -5289,7 +5395,7 @@
       <c r="BG76" s="3"/>
       <c r="BH76" s="3"/>
     </row>
-    <row r="77" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5349,7 +5455,7 @@
       <c r="BG77" s="3"/>
       <c r="BH77" s="3"/>
     </row>
-    <row r="78" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5409,7 +5515,7 @@
       <c r="BG78" s="3"/>
       <c r="BH78" s="3"/>
     </row>
-    <row r="79" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5469,7 +5575,7 @@
       <c r="BG79" s="3"/>
       <c r="BH79" s="3"/>
     </row>
-    <row r="80" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5529,7 +5635,7 @@
       <c r="BG80" s="3"/>
       <c r="BH80" s="3"/>
     </row>
-    <row r="81" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -5589,7 +5695,7 @@
       <c r="BG81" s="3"/>
       <c r="BH81" s="3"/>
     </row>
-    <row r="82" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -5649,7 +5755,7 @@
       <c r="BG82" s="3"/>
       <c r="BH82" s="3"/>
     </row>
-    <row r="83" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -5709,7 +5815,7 @@
       <c r="BG83" s="3"/>
       <c r="BH83" s="3"/>
     </row>
-    <row r="84" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -5769,7 +5875,7 @@
       <c r="BG84" s="3"/>
       <c r="BH84" s="3"/>
     </row>
-    <row r="85" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -5829,7 +5935,7 @@
       <c r="BG85" s="3"/>
       <c r="BH85" s="3"/>
     </row>
-    <row r="86" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -5889,7 +5995,7 @@
       <c r="BG86" s="3"/>
       <c r="BH86" s="3"/>
     </row>
-    <row r="87" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -5949,7 +6055,7 @@
       <c r="BG87" s="3"/>
       <c r="BH87" s="3"/>
     </row>
-    <row r="88" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -6009,7 +6115,7 @@
       <c r="BG88" s="3"/>
       <c r="BH88" s="3"/>
     </row>
-    <row r="89" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -6069,7 +6175,7 @@
       <c r="BG89" s="3"/>
       <c r="BH89" s="3"/>
     </row>
-    <row r="90" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -6129,7 +6235,7 @@
       <c r="BG90" s="3"/>
       <c r="BH90" s="3"/>
     </row>
-    <row r="91" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -6189,7 +6295,7 @@
       <c r="BG91" s="3"/>
       <c r="BH91" s="3"/>
     </row>
-    <row r="92" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -6249,7 +6355,7 @@
       <c r="BG92" s="3"/>
       <c r="BH92" s="3"/>
     </row>
-    <row r="93" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -6309,7 +6415,7 @@
       <c r="BG93" s="3"/>
       <c r="BH93" s="3"/>
     </row>
-    <row r="94" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -6369,7 +6475,7 @@
       <c r="BG94" s="3"/>
       <c r="BH94" s="3"/>
     </row>
-    <row r="95" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -6429,7 +6535,7 @@
       <c r="BG95" s="3"/>
       <c r="BH95" s="3"/>
     </row>
-    <row r="96" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -6489,7 +6595,7 @@
       <c r="BG96" s="3"/>
       <c r="BH96" s="3"/>
     </row>
-    <row r="97" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -6549,7 +6655,7 @@
       <c r="BG97" s="3"/>
       <c r="BH97" s="3"/>
     </row>
-    <row r="98" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -6609,7 +6715,7 @@
       <c r="BG98" s="3"/>
       <c r="BH98" s="3"/>
     </row>
-    <row r="99" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -6669,7 +6775,7 @@
       <c r="BG99" s="3"/>
       <c r="BH99" s="3"/>
     </row>
-    <row r="100" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -6729,7 +6835,7 @@
       <c r="BG100" s="3"/>
       <c r="BH100" s="3"/>
     </row>
-    <row r="101" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -6789,7 +6895,7 @@
       <c r="BG101" s="3"/>
       <c r="BH101" s="3"/>
     </row>
-    <row r="102" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -6849,7 +6955,7 @@
       <c r="BG102" s="3"/>
       <c r="BH102" s="3"/>
     </row>
-    <row r="103" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -6909,7 +7015,7 @@
       <c r="BG103" s="3"/>
       <c r="BH103" s="3"/>
     </row>
-    <row r="104" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -6969,7 +7075,7 @@
       <c r="BG104" s="3"/>
       <c r="BH104" s="3"/>
     </row>
-    <row r="105" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -7029,7 +7135,7 @@
       <c r="BG105" s="3"/>
       <c r="BH105" s="3"/>
     </row>
-    <row r="106" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -7089,7 +7195,7 @@
       <c r="BG106" s="3"/>
       <c r="BH106" s="3"/>
     </row>
-    <row r="107" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -7149,7 +7255,7 @@
       <c r="BG107" s="3"/>
       <c r="BH107" s="3"/>
     </row>
-    <row r="108" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -7209,7 +7315,7 @@
       <c r="BG108" s="3"/>
       <c r="BH108" s="3"/>
     </row>
-    <row r="109" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -7269,7 +7375,7 @@
       <c r="BG109" s="3"/>
       <c r="BH109" s="3"/>
     </row>
-    <row r="110" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -7329,7 +7435,7 @@
       <c r="BG110" s="3"/>
       <c r="BH110" s="3"/>
     </row>
-    <row r="111" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -7389,7 +7495,7 @@
       <c r="BG111" s="3"/>
       <c r="BH111" s="3"/>
     </row>
-    <row r="112" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -7449,7 +7555,7 @@
       <c r="BG112" s="3"/>
       <c r="BH112" s="3"/>
     </row>
-    <row r="113" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -7509,7 +7615,7 @@
       <c r="BG113" s="3"/>
       <c r="BH113" s="3"/>
     </row>
-    <row r="114" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -7569,7 +7675,7 @@
       <c r="BG114" s="3"/>
       <c r="BH114" s="3"/>
     </row>
-    <row r="115" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -7629,7 +7735,7 @@
       <c r="BG115" s="3"/>
       <c r="BH115" s="3"/>
     </row>
-    <row r="116" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -7689,7 +7795,7 @@
       <c r="BG116" s="3"/>
       <c r="BH116" s="3"/>
     </row>
-    <row r="117" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -7749,7 +7855,7 @@
       <c r="BG117" s="3"/>
       <c r="BH117" s="3"/>
     </row>
-    <row r="118" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -7809,7 +7915,7 @@
       <c r="BG118" s="3"/>
       <c r="BH118" s="3"/>
     </row>
-    <row r="119" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -7869,7 +7975,7 @@
       <c r="BG119" s="3"/>
       <c r="BH119" s="3"/>
     </row>
-    <row r="120" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -7929,7 +8035,7 @@
       <c r="BG120" s="3"/>
       <c r="BH120" s="3"/>
     </row>
-    <row r="121" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -7989,7 +8095,7 @@
       <c r="BG121" s="3"/>
       <c r="BH121" s="3"/>
     </row>
-    <row r="122" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -8049,7 +8155,7 @@
       <c r="BG122" s="3"/>
       <c r="BH122" s="3"/>
     </row>
-    <row r="123" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -8109,7 +8215,7 @@
       <c r="BG123" s="3"/>
       <c r="BH123" s="3"/>
     </row>
-    <row r="124" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -8169,7 +8275,7 @@
       <c r="BG124" s="3"/>
       <c r="BH124" s="3"/>
     </row>
-    <row r="125" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -8229,7 +8335,7 @@
       <c r="BG125" s="3"/>
       <c r="BH125" s="3"/>
     </row>
-    <row r="126" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -8289,7 +8395,7 @@
       <c r="BG126" s="3"/>
       <c r="BH126" s="3"/>
     </row>
-    <row r="127" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -8349,7 +8455,7 @@
       <c r="BG127" s="3"/>
       <c r="BH127" s="3"/>
     </row>
-    <row r="128" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -8409,7 +8515,7 @@
       <c r="BG128" s="3"/>
       <c r="BH128" s="3"/>
     </row>
-    <row r="129" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -8469,7 +8575,7 @@
       <c r="BG129" s="3"/>
       <c r="BH129" s="3"/>
     </row>
-    <row r="130" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -8529,7 +8635,7 @@
       <c r="BG130" s="3"/>
       <c r="BH130" s="3"/>
     </row>
-    <row r="131" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -8589,7 +8695,7 @@
       <c r="BG131" s="3"/>
       <c r="BH131" s="3"/>
     </row>
-    <row r="132" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -8649,7 +8755,7 @@
       <c r="BG132" s="3"/>
       <c r="BH132" s="3"/>
     </row>
-    <row r="133" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -8709,7 +8815,7 @@
       <c r="BG133" s="3"/>
       <c r="BH133" s="3"/>
     </row>
-    <row r="134" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -8769,7 +8875,7 @@
       <c r="BG134" s="3"/>
       <c r="BH134" s="3"/>
     </row>
-    <row r="135" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -8829,7 +8935,7 @@
       <c r="BG135" s="3"/>
       <c r="BH135" s="3"/>
     </row>
-    <row r="136" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -8889,7 +8995,7 @@
       <c r="BG136" s="3"/>
       <c r="BH136" s="3"/>
     </row>
-    <row r="137" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -8949,7 +9055,7 @@
       <c r="BG137" s="3"/>
       <c r="BH137" s="3"/>
     </row>
-    <row r="138" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -9009,7 +9115,7 @@
       <c r="BG138" s="3"/>
       <c r="BH138" s="3"/>
     </row>
-    <row r="139" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -9069,7 +9175,7 @@
       <c r="BG139" s="3"/>
       <c r="BH139" s="3"/>
     </row>
-    <row r="140" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -9129,7 +9235,7 @@
       <c r="BG140" s="3"/>
       <c r="BH140" s="3"/>
     </row>
-    <row r="141" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -9189,7 +9295,7 @@
       <c r="BG141" s="3"/>
       <c r="BH141" s="3"/>
     </row>
-    <row r="142" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -9249,7 +9355,7 @@
       <c r="BG142" s="3"/>
       <c r="BH142" s="3"/>
     </row>
-    <row r="143" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -9309,7 +9415,7 @@
       <c r="BG143" s="3"/>
       <c r="BH143" s="3"/>
     </row>
-    <row r="144" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -9369,7 +9475,7 @@
       <c r="BG144" s="3"/>
       <c r="BH144" s="3"/>
     </row>
-    <row r="145" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -9429,7 +9535,7 @@
       <c r="BG145" s="3"/>
       <c r="BH145" s="3"/>
     </row>
-    <row r="146" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -9489,7 +9595,7 @@
       <c r="BG146" s="3"/>
       <c r="BH146" s="3"/>
     </row>
-    <row r="147" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -9549,7 +9655,7 @@
       <c r="BG147" s="3"/>
       <c r="BH147" s="3"/>
     </row>
-    <row r="148" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -9609,7 +9715,7 @@
       <c r="BG148" s="3"/>
       <c r="BH148" s="3"/>
     </row>
-    <row r="149" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -9669,7 +9775,7 @@
       <c r="BG149" s="3"/>
       <c r="BH149" s="3"/>
     </row>
-    <row r="150" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -9729,7 +9835,7 @@
       <c r="BG150" s="3"/>
       <c r="BH150" s="3"/>
     </row>
-    <row r="151" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -9789,7 +9895,7 @@
       <c r="BG151" s="3"/>
       <c r="BH151" s="3"/>
     </row>
-    <row r="152" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -9849,7 +9955,7 @@
       <c r="BG152" s="3"/>
       <c r="BH152" s="3"/>
     </row>
-    <row r="153" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -9909,7 +10015,7 @@
       <c r="BG153" s="3"/>
       <c r="BH153" s="3"/>
     </row>
-    <row r="154" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -9969,7 +10075,7 @@
       <c r="BG154" s="3"/>
       <c r="BH154" s="3"/>
     </row>
-    <row r="155" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -10029,7 +10135,7 @@
       <c r="BG155" s="3"/>
       <c r="BH155" s="3"/>
     </row>
-    <row r="156" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -10089,7 +10195,7 @@
       <c r="BG156" s="3"/>
       <c r="BH156" s="3"/>
     </row>
-    <row r="157" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -10149,7 +10255,7 @@
       <c r="BG157" s="3"/>
       <c r="BH157" s="3"/>
     </row>
-    <row r="158" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -10209,7 +10315,7 @@
       <c r="BG158" s="3"/>
       <c r="BH158" s="3"/>
     </row>
-    <row r="159" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -10269,7 +10375,7 @@
       <c r="BG159" s="3"/>
       <c r="BH159" s="3"/>
     </row>
-    <row r="160" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -10329,7 +10435,7 @@
       <c r="BG160" s="3"/>
       <c r="BH160" s="3"/>
     </row>
-    <row r="161" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -10389,7 +10495,7 @@
       <c r="BG161" s="3"/>
       <c r="BH161" s="3"/>
     </row>
-    <row r="162" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -10449,7 +10555,7 @@
       <c r="BG162" s="3"/>
       <c r="BH162" s="3"/>
     </row>
-    <row r="163" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -10509,7 +10615,7 @@
       <c r="BG163" s="3"/>
       <c r="BH163" s="3"/>
     </row>
-    <row r="164" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -10569,7 +10675,7 @@
       <c r="BG164" s="3"/>
       <c r="BH164" s="3"/>
     </row>
-    <row r="165" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -10629,7 +10735,7 @@
       <c r="BG165" s="3"/>
       <c r="BH165" s="3"/>
     </row>
-    <row r="166" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -10689,7 +10795,7 @@
       <c r="BG166" s="3"/>
       <c r="BH166" s="3"/>
     </row>
-    <row r="167" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -10749,7 +10855,7 @@
       <c r="BG167" s="3"/>
       <c r="BH167" s="3"/>
     </row>
-    <row r="168" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -10809,7 +10915,7 @@
       <c r="BG168" s="3"/>
       <c r="BH168" s="3"/>
     </row>
-    <row r="169" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -10869,7 +10975,7 @@
       <c r="BG169" s="3"/>
       <c r="BH169" s="3"/>
     </row>
-    <row r="170" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -10929,7 +11035,7 @@
       <c r="BG170" s="3"/>
       <c r="BH170" s="3"/>
     </row>
-    <row r="171" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -10989,7 +11095,7 @@
       <c r="BG171" s="3"/>
       <c r="BH171" s="3"/>
     </row>
-    <row r="172" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -11049,7 +11155,7 @@
       <c r="BG172" s="3"/>
       <c r="BH172" s="3"/>
     </row>
-    <row r="173" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -11109,7 +11215,7 @@
       <c r="BG173" s="3"/>
       <c r="BH173" s="3"/>
     </row>
-    <row r="174" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -11169,7 +11275,7 @@
       <c r="BG174" s="3"/>
       <c r="BH174" s="3"/>
     </row>
-    <row r="175" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -11229,7 +11335,7 @@
       <c r="BG175" s="3"/>
       <c r="BH175" s="3"/>
     </row>
-    <row r="176" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -11289,7 +11395,7 @@
       <c r="BG176" s="3"/>
       <c r="BH176" s="3"/>
     </row>
-    <row r="177" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -11349,7 +11455,7 @@
       <c r="BG177" s="3"/>
       <c r="BH177" s="3"/>
     </row>
-    <row r="178" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -11409,7 +11515,7 @@
       <c r="BG178" s="3"/>
       <c r="BH178" s="3"/>
     </row>
-    <row r="179" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -11469,7 +11575,7 @@
       <c r="BG179" s="3"/>
       <c r="BH179" s="3"/>
     </row>
-    <row r="180" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -11529,7 +11635,7 @@
       <c r="BG180" s="3"/>
       <c r="BH180" s="3"/>
     </row>
-    <row r="181" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -11589,7 +11695,7 @@
       <c r="BG181" s="3"/>
       <c r="BH181" s="3"/>
     </row>
-    <row r="182" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -11649,7 +11755,7 @@
       <c r="BG182" s="3"/>
       <c r="BH182" s="3"/>
     </row>
-    <row r="183" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -11709,7 +11815,7 @@
       <c r="BG183" s="3"/>
       <c r="BH183" s="3"/>
     </row>
-    <row r="184" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -11769,7 +11875,7 @@
       <c r="BG184" s="3"/>
       <c r="BH184" s="3"/>
     </row>
-    <row r="185" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -11829,7 +11935,7 @@
       <c r="BG185" s="3"/>
       <c r="BH185" s="3"/>
     </row>
-    <row r="186" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -11889,7 +11995,7 @@
       <c r="BG186" s="3"/>
       <c r="BH186" s="3"/>
     </row>
-    <row r="187" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -11949,7 +12055,7 @@
       <c r="BG187" s="3"/>
       <c r="BH187" s="3"/>
     </row>
-    <row r="188" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -12009,7 +12115,7 @@
       <c r="BG188" s="3"/>
       <c r="BH188" s="3"/>
     </row>
-    <row r="189" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -12069,7 +12175,7 @@
       <c r="BG189" s="3"/>
       <c r="BH189" s="3"/>
     </row>
-    <row r="190" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -12129,7 +12235,7 @@
       <c r="BG190" s="3"/>
       <c r="BH190" s="3"/>
     </row>
-    <row r="191" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -12189,7 +12295,7 @@
       <c r="BG191" s="3"/>
       <c r="BH191" s="3"/>
     </row>
-    <row r="192" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -12249,7 +12355,7 @@
       <c r="BG192" s="3"/>
       <c r="BH192" s="3"/>
     </row>
-    <row r="193" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -12309,7 +12415,7 @@
       <c r="BG193" s="3"/>
       <c r="BH193" s="3"/>
     </row>
-    <row r="194" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -12369,7 +12475,7 @@
       <c r="BG194" s="3"/>
       <c r="BH194" s="3"/>
     </row>
-    <row r="195" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -12429,7 +12535,7 @@
       <c r="BG195" s="3"/>
       <c r="BH195" s="3"/>
     </row>
-    <row r="196" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -12489,7 +12595,7 @@
       <c r="BG196" s="3"/>
       <c r="BH196" s="3"/>
     </row>
-    <row r="197" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -12549,7 +12655,7 @@
       <c r="BG197" s="3"/>
       <c r="BH197" s="3"/>
     </row>
-    <row r="198" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -12609,7 +12715,7 @@
       <c r="BG198" s="3"/>
       <c r="BH198" s="3"/>
     </row>
-    <row r="199" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -12669,7 +12775,7 @@
       <c r="BG199" s="3"/>
       <c r="BH199" s="3"/>
     </row>
-    <row r="200" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -12729,7 +12835,7 @@
       <c r="BG200" s="3"/>
       <c r="BH200" s="3"/>
     </row>
-    <row r="201" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -12789,7 +12895,7 @@
       <c r="BG201" s="3"/>
       <c r="BH201" s="3"/>
     </row>
-    <row r="202" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -12849,7 +12955,7 @@
       <c r="BG202" s="3"/>
       <c r="BH202" s="3"/>
     </row>
-    <row r="203" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -12909,7 +13015,7 @@
       <c r="BG203" s="3"/>
       <c r="BH203" s="3"/>
     </row>
-    <row r="204" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -12969,7 +13075,7 @@
       <c r="BG204" s="3"/>
       <c r="BH204" s="3"/>
     </row>
-    <row r="205" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -13029,7 +13135,7 @@
       <c r="BG205" s="3"/>
       <c r="BH205" s="3"/>
     </row>
-    <row r="206" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -13089,7 +13195,7 @@
       <c r="BG206" s="3"/>
       <c r="BH206" s="3"/>
     </row>
-    <row r="207" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -13149,7 +13255,7 @@
       <c r="BG207" s="3"/>
       <c r="BH207" s="3"/>
     </row>
-    <row r="208" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -13209,7 +13315,7 @@
       <c r="BG208" s="3"/>
       <c r="BH208" s="3"/>
     </row>
-    <row r="209" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -13269,7 +13375,7 @@
       <c r="BG209" s="3"/>
       <c r="BH209" s="3"/>
     </row>
-    <row r="210" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -13329,7 +13435,7 @@
       <c r="BG210" s="3"/>
       <c r="BH210" s="3"/>
     </row>
-    <row r="211" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -13389,7 +13495,7 @@
       <c r="BG211" s="3"/>
       <c r="BH211" s="3"/>
     </row>
-    <row r="212" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -13449,7 +13555,7 @@
       <c r="BG212" s="3"/>
       <c r="BH212" s="3"/>
     </row>
-    <row r="213" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -13509,7 +13615,7 @@
       <c r="BG213" s="3"/>
       <c r="BH213" s="3"/>
     </row>
-    <row r="214" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -13569,7 +13675,7 @@
       <c r="BG214" s="3"/>
       <c r="BH214" s="3"/>
     </row>
-    <row r="215" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -13629,7 +13735,7 @@
       <c r="BG215" s="3"/>
       <c r="BH215" s="3"/>
     </row>
-    <row r="216" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -13689,7 +13795,7 @@
       <c r="BG216" s="3"/>
       <c r="BH216" s="3"/>
     </row>
-    <row r="217" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -13749,7 +13855,7 @@
       <c r="BG217" s="3"/>
       <c r="BH217" s="3"/>
     </row>
-    <row r="218" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -13809,7 +13915,7 @@
       <c r="BG218" s="3"/>
       <c r="BH218" s="3"/>
     </row>
-    <row r="219" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -13869,7 +13975,7 @@
       <c r="BG219" s="3"/>
       <c r="BH219" s="3"/>
     </row>
-    <row r="220" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -13929,7 +14035,7 @@
       <c r="BG220" s="3"/>
       <c r="BH220" s="3"/>
     </row>
-    <row r="221" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -13989,7 +14095,7 @@
       <c r="BG221" s="3"/>
       <c r="BH221" s="3"/>
     </row>
-    <row r="222" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -14049,7 +14155,7 @@
       <c r="BG222" s="3"/>
       <c r="BH222" s="3"/>
     </row>
-    <row r="223" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -14109,7 +14215,7 @@
       <c r="BG223" s="3"/>
       <c r="BH223" s="3"/>
     </row>
-    <row r="224" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -14169,7 +14275,7 @@
       <c r="BG224" s="3"/>
       <c r="BH224" s="3"/>
     </row>
-    <row r="225" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -14229,7 +14335,7 @@
       <c r="BG225" s="3"/>
       <c r="BH225" s="3"/>
     </row>
-    <row r="226" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -14289,7 +14395,7 @@
       <c r="BG226" s="3"/>
       <c r="BH226" s="3"/>
     </row>
-    <row r="227" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -14349,7 +14455,7 @@
       <c r="BG227" s="3"/>
       <c r="BH227" s="3"/>
     </row>
-    <row r="228" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -14409,7 +14515,7 @@
       <c r="BG228" s="3"/>
       <c r="BH228" s="3"/>
     </row>
-    <row r="229" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -14469,7 +14575,7 @@
       <c r="BG229" s="3"/>
       <c r="BH229" s="3"/>
     </row>
-    <row r="230" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -14529,7 +14635,7 @@
       <c r="BG230" s="3"/>
       <c r="BH230" s="3"/>
     </row>
-    <row r="231" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -14589,7 +14695,7 @@
       <c r="BG231" s="3"/>
       <c r="BH231" s="3"/>
     </row>
-    <row r="232" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -14649,7 +14755,7 @@
       <c r="BG232" s="3"/>
       <c r="BH232" s="3"/>
     </row>
-    <row r="233" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -14709,7 +14815,7 @@
       <c r="BG233" s="3"/>
       <c r="BH233" s="3"/>
     </row>
-    <row r="234" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -14769,7 +14875,7 @@
       <c r="BG234" s="3"/>
       <c r="BH234" s="3"/>
     </row>
-    <row r="235" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -14829,7 +14935,7 @@
       <c r="BG235" s="3"/>
       <c r="BH235" s="3"/>
     </row>
-    <row r="236" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -14889,7 +14995,7 @@
       <c r="BG236" s="3"/>
       <c r="BH236" s="3"/>
     </row>
-    <row r="237" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -14949,7 +15055,7 @@
       <c r="BG237" s="3"/>
       <c r="BH237" s="3"/>
     </row>
-    <row r="238" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -15009,7 +15115,7 @@
       <c r="BG238" s="3"/>
       <c r="BH238" s="3"/>
     </row>
-    <row r="239" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -15069,7 +15175,7 @@
       <c r="BG239" s="3"/>
       <c r="BH239" s="3"/>
     </row>
-    <row r="240" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -15129,7 +15235,7 @@
       <c r="BG240" s="3"/>
       <c r="BH240" s="3"/>
     </row>
-    <row r="241" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -15189,7 +15295,7 @@
       <c r="BG241" s="3"/>
       <c r="BH241" s="3"/>
     </row>
-    <row r="242" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -15249,7 +15355,7 @@
       <c r="BG242" s="3"/>
       <c r="BH242" s="3"/>
     </row>
-    <row r="243" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -15309,7 +15415,7 @@
       <c r="BG243" s="3"/>
       <c r="BH243" s="3"/>
     </row>
-    <row r="244" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -15369,7 +15475,7 @@
       <c r="BG244" s="3"/>
       <c r="BH244" s="3"/>
     </row>
-    <row r="245" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -15429,7 +15535,7 @@
       <c r="BG245" s="3"/>
       <c r="BH245" s="3"/>
     </row>
-    <row r="246" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -15489,7 +15595,7 @@
       <c r="BG246" s="3"/>
       <c r="BH246" s="3"/>
     </row>
-    <row r="247" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -15549,7 +15655,7 @@
       <c r="BG247" s="3"/>
       <c r="BH247" s="3"/>
     </row>
-    <row r="248" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -15609,7 +15715,7 @@
       <c r="BG248" s="3"/>
       <c r="BH248" s="3"/>
     </row>
-    <row r="249" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -15669,7 +15775,7 @@
       <c r="BG249" s="3"/>
       <c r="BH249" s="3"/>
     </row>
-    <row r="250" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -15729,7 +15835,7 @@
       <c r="BG250" s="3"/>
       <c r="BH250" s="3"/>
     </row>
-    <row r="251" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -15789,7 +15895,7 @@
       <c r="BG251" s="3"/>
       <c r="BH251" s="3"/>
     </row>
-    <row r="252" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -15849,7 +15955,7 @@
       <c r="BG252" s="3"/>
       <c r="BH252" s="3"/>
     </row>
-    <row r="253" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -15909,7 +16015,7 @@
       <c r="BG253" s="3"/>
       <c r="BH253" s="3"/>
     </row>
-    <row r="254" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -15969,7 +16075,7 @@
       <c r="BG254" s="3"/>
       <c r="BH254" s="3"/>
     </row>
-    <row r="255" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -16029,7 +16135,7 @@
       <c r="BG255" s="3"/>
       <c r="BH255" s="3"/>
     </row>
-    <row r="256" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -16089,7 +16195,7 @@
       <c r="BG256" s="3"/>
       <c r="BH256" s="3"/>
     </row>
-    <row r="257" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -16149,7 +16255,7 @@
       <c r="BG257" s="3"/>
       <c r="BH257" s="3"/>
     </row>
-    <row r="258" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -16209,7 +16315,7 @@
       <c r="BG258" s="3"/>
       <c r="BH258" s="3"/>
     </row>
-    <row r="259" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -16269,7 +16375,7 @@
       <c r="BG259" s="3"/>
       <c r="BH259" s="3"/>
     </row>
-    <row r="260" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -16329,7 +16435,7 @@
       <c r="BG260" s="3"/>
       <c r="BH260" s="3"/>
     </row>
-    <row r="261" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -16389,7 +16495,7 @@
       <c r="BG261" s="3"/>
       <c r="BH261" s="3"/>
     </row>
-    <row r="262" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -16449,7 +16555,7 @@
       <c r="BG262" s="3"/>
       <c r="BH262" s="3"/>
     </row>
-    <row r="263" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -16509,7 +16615,7 @@
       <c r="BG263" s="3"/>
       <c r="BH263" s="3"/>
     </row>
-    <row r="264" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -16569,7 +16675,7 @@
       <c r="BG264" s="3"/>
       <c r="BH264" s="3"/>
     </row>
-    <row r="265" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -16629,7 +16735,7 @@
       <c r="BG265" s="3"/>
       <c r="BH265" s="3"/>
     </row>
-    <row r="266" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -16689,7 +16795,7 @@
       <c r="BG266" s="3"/>
       <c r="BH266" s="3"/>
     </row>
-    <row r="267" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -16749,7 +16855,7 @@
       <c r="BG267" s="3"/>
       <c r="BH267" s="3"/>
     </row>
-    <row r="268" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -16809,7 +16915,7 @@
       <c r="BG268" s="3"/>
       <c r="BH268" s="3"/>
     </row>
-    <row r="269" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -16869,7 +16975,7 @@
       <c r="BG269" s="3"/>
       <c r="BH269" s="3"/>
     </row>
-    <row r="270" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -16929,7 +17035,7 @@
       <c r="BG270" s="3"/>
       <c r="BH270" s="3"/>
     </row>
-    <row r="271" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -16989,7 +17095,7 @@
       <c r="BG271" s="3"/>
       <c r="BH271" s="3"/>
     </row>
-    <row r="272" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -17049,7 +17155,7 @@
       <c r="BG272" s="3"/>
       <c r="BH272" s="3"/>
     </row>
-    <row r="273" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -17109,7 +17215,7 @@
       <c r="BG273" s="3"/>
       <c r="BH273" s="3"/>
     </row>
-    <row r="274" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -17169,7 +17275,7 @@
       <c r="BG274" s="3"/>
       <c r="BH274" s="3"/>
     </row>
-    <row r="275" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -17229,7 +17335,7 @@
       <c r="BG275" s="3"/>
       <c r="BH275" s="3"/>
     </row>
-    <row r="276" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -17289,7 +17395,7 @@
       <c r="BG276" s="3"/>
       <c r="BH276" s="3"/>
     </row>
-    <row r="277" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -17349,7 +17455,7 @@
       <c r="BG277" s="3"/>
       <c r="BH277" s="3"/>
     </row>
-    <row r="278" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -17409,7 +17515,7 @@
       <c r="BG278" s="3"/>
       <c r="BH278" s="3"/>
     </row>
-    <row r="279" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -17469,7 +17575,7 @@
       <c r="BG279" s="3"/>
       <c r="BH279" s="3"/>
     </row>
-    <row r="280" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -17529,7 +17635,7 @@
       <c r="BG280" s="3"/>
       <c r="BH280" s="3"/>
     </row>
-    <row r="281" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -17589,7 +17695,7 @@
       <c r="BG281" s="3"/>
       <c r="BH281" s="3"/>
     </row>
-    <row r="282" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -17649,7 +17755,7 @@
       <c r="BG282" s="3"/>
       <c r="BH282" s="3"/>
     </row>
-    <row r="283" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -17709,7 +17815,7 @@
       <c r="BG283" s="3"/>
       <c r="BH283" s="3"/>
     </row>
-    <row r="284" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -17769,7 +17875,7 @@
       <c r="BG284" s="3"/>
       <c r="BH284" s="3"/>
     </row>
-    <row r="285" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -17829,7 +17935,7 @@
       <c r="BG285" s="3"/>
       <c r="BH285" s="3"/>
     </row>
-    <row r="286" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -17889,7 +17995,7 @@
       <c r="BG286" s="3"/>
       <c r="BH286" s="3"/>
     </row>
-    <row r="287" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -17949,7 +18055,7 @@
       <c r="BG287" s="3"/>
       <c r="BH287" s="3"/>
     </row>
-    <row r="288" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -18009,7 +18115,7 @@
       <c r="BG288" s="3"/>
       <c r="BH288" s="3"/>
     </row>
-    <row r="289" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -18069,7 +18175,7 @@
       <c r="BG289" s="3"/>
       <c r="BH289" s="3"/>
     </row>
-    <row r="290" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -18129,7 +18235,7 @@
       <c r="BG290" s="3"/>
       <c r="BH290" s="3"/>
     </row>
-    <row r="291" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -18189,7 +18295,7 @@
       <c r="BG291" s="3"/>
       <c r="BH291" s="3"/>
     </row>
-    <row r="292" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -18249,7 +18355,7 @@
       <c r="BG292" s="3"/>
       <c r="BH292" s="3"/>
     </row>
-    <row r="293" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -18309,7 +18415,7 @@
       <c r="BG293" s="3"/>
       <c r="BH293" s="3"/>
     </row>
-    <row r="294" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -18369,7 +18475,7 @@
       <c r="BG294" s="3"/>
       <c r="BH294" s="3"/>
     </row>
-    <row r="295" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -18429,7 +18535,7 @@
       <c r="BG295" s="3"/>
       <c r="BH295" s="3"/>
     </row>
-    <row r="296" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -18489,7 +18595,7 @@
       <c r="BG296" s="3"/>
       <c r="BH296" s="3"/>
     </row>
-    <row r="297" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -18549,7 +18655,7 @@
       <c r="BG297" s="3"/>
       <c r="BH297" s="3"/>
     </row>
-    <row r="298" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -18609,7 +18715,7 @@
       <c r="BG298" s="3"/>
       <c r="BH298" s="3"/>
     </row>
-    <row r="299" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -18669,7 +18775,7 @@
       <c r="BG299" s="3"/>
       <c r="BH299" s="3"/>
     </row>
-    <row r="300" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -18729,7 +18835,7 @@
       <c r="BG300" s="3"/>
       <c r="BH300" s="3"/>
     </row>
-    <row r="301" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -18789,7 +18895,7 @@
       <c r="BG301" s="3"/>
       <c r="BH301" s="3"/>
     </row>
-    <row r="302" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -18849,7 +18955,7 @@
       <c r="BG302" s="3"/>
       <c r="BH302" s="3"/>
     </row>
-    <row r="303" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -18909,7 +19015,7 @@
       <c r="BG303" s="3"/>
       <c r="BH303" s="3"/>
     </row>
-    <row r="304" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -18969,7 +19075,7 @@
       <c r="BG304" s="3"/>
       <c r="BH304" s="3"/>
     </row>
-    <row r="305" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -19029,7 +19135,7 @@
       <c r="BG305" s="3"/>
       <c r="BH305" s="3"/>
     </row>
-    <row r="306" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -19089,7 +19195,7 @@
       <c r="BG306" s="3"/>
       <c r="BH306" s="3"/>
     </row>
-    <row r="307" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -19149,7 +19255,7 @@
       <c r="BG307" s="3"/>
       <c r="BH307" s="3"/>
     </row>
-    <row r="308" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -19209,7 +19315,7 @@
       <c r="BG308" s="3"/>
       <c r="BH308" s="3"/>
     </row>
-    <row r="309" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -19269,7 +19375,7 @@
       <c r="BG309" s="3"/>
       <c r="BH309" s="3"/>
     </row>
-    <row r="310" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -19329,7 +19435,7 @@
       <c r="BG310" s="3"/>
       <c r="BH310" s="3"/>
     </row>
-    <row r="311" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -19389,7 +19495,7 @@
       <c r="BG311" s="3"/>
       <c r="BH311" s="3"/>
     </row>
-    <row r="312" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -19449,7 +19555,7 @@
       <c r="BG312" s="3"/>
       <c r="BH312" s="3"/>
     </row>
-    <row r="313" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -19509,7 +19615,7 @@
       <c r="BG313" s="3"/>
       <c r="BH313" s="3"/>
     </row>
-    <row r="314" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -19569,7 +19675,7 @@
       <c r="BG314" s="3"/>
       <c r="BH314" s="3"/>
     </row>
-    <row r="315" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -19629,7 +19735,7 @@
       <c r="BG315" s="3"/>
       <c r="BH315" s="3"/>
     </row>
-    <row r="316" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -19689,7 +19795,7 @@
       <c r="BG316" s="3"/>
       <c r="BH316" s="3"/>
     </row>
-    <row r="317" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -19749,7 +19855,7 @@
       <c r="BG317" s="3"/>
       <c r="BH317" s="3"/>
     </row>
-    <row r="318" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -19809,7 +19915,7 @@
       <c r="BG318" s="3"/>
       <c r="BH318" s="3"/>
     </row>
-    <row r="319" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -19869,7 +19975,7 @@
       <c r="BG319" s="3"/>
       <c r="BH319" s="3"/>
     </row>
-    <row r="320" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -19929,7 +20035,7 @@
       <c r="BG320" s="3"/>
       <c r="BH320" s="3"/>
     </row>
-    <row r="321" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -19989,7 +20095,7 @@
       <c r="BG321" s="3"/>
       <c r="BH321" s="3"/>
     </row>
-    <row r="322" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -20049,7 +20155,7 @@
       <c r="BG322" s="3"/>
       <c r="BH322" s="3"/>
     </row>
-    <row r="323" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -20109,7 +20215,7 @@
       <c r="BG323" s="3"/>
       <c r="BH323" s="3"/>
     </row>
-    <row r="324" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -20169,7 +20275,7 @@
       <c r="BG324" s="3"/>
       <c r="BH324" s="3"/>
     </row>
-    <row r="325" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -20229,7 +20335,7 @@
       <c r="BG325" s="3"/>
       <c r="BH325" s="3"/>
     </row>
-    <row r="326" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -20289,7 +20395,7 @@
       <c r="BG326" s="3"/>
       <c r="BH326" s="3"/>
     </row>
-    <row r="327" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -20349,7 +20455,7 @@
       <c r="BG327" s="3"/>
       <c r="BH327" s="3"/>
     </row>
-    <row r="328" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -20409,7 +20515,7 @@
       <c r="BG328" s="3"/>
       <c r="BH328" s="3"/>
     </row>
-    <row r="329" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -20469,7 +20575,7 @@
       <c r="BG329" s="3"/>
       <c r="BH329" s="3"/>
     </row>
-    <row r="330" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -20529,7 +20635,7 @@
       <c r="BG330" s="3"/>
       <c r="BH330" s="3"/>
     </row>
-    <row r="331" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -20589,7 +20695,7 @@
       <c r="BG331" s="3"/>
       <c r="BH331" s="3"/>
     </row>
-    <row r="332" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -20649,7 +20755,7 @@
       <c r="BG332" s="3"/>
       <c r="BH332" s="3"/>
     </row>
-    <row r="333" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -20709,7 +20815,7 @@
       <c r="BG333" s="3"/>
       <c r="BH333" s="3"/>
     </row>
-    <row r="334" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -20769,7 +20875,7 @@
       <c r="BG334" s="3"/>
       <c r="BH334" s="3"/>
     </row>
-    <row r="335" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -20829,7 +20935,7 @@
       <c r="BG335" s="3"/>
       <c r="BH335" s="3"/>
     </row>
-    <row r="336" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -20889,7 +20995,7 @@
       <c r="BG336" s="3"/>
       <c r="BH336" s="3"/>
     </row>
-    <row r="337" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -20949,7 +21055,7 @@
       <c r="BG337" s="3"/>
       <c r="BH337" s="3"/>
     </row>
-    <row r="338" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -21009,7 +21115,7 @@
       <c r="BG338" s="3"/>
       <c r="BH338" s="3"/>
     </row>
-    <row r="339" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -21069,7 +21175,7 @@
       <c r="BG339" s="3"/>
       <c r="BH339" s="3"/>
     </row>
-    <row r="340" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -21129,7 +21235,7 @@
       <c r="BG340" s="3"/>
       <c r="BH340" s="3"/>
     </row>
-    <row r="341" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -21189,7 +21295,7 @@
       <c r="BG341" s="3"/>
       <c r="BH341" s="3"/>
     </row>
-    <row r="342" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -21249,7 +21355,7 @@
       <c r="BG342" s="3"/>
       <c r="BH342" s="3"/>
     </row>
-    <row r="343" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -21309,7 +21415,7 @@
       <c r="BG343" s="3"/>
       <c r="BH343" s="3"/>
     </row>
-    <row r="344" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -21369,7 +21475,7 @@
       <c r="BG344" s="3"/>
       <c r="BH344" s="3"/>
     </row>
-    <row r="345" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -21429,7 +21535,7 @@
       <c r="BG345" s="3"/>
       <c r="BH345" s="3"/>
     </row>
-    <row r="346" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -21489,7 +21595,7 @@
       <c r="BG346" s="3"/>
       <c r="BH346" s="3"/>
     </row>
-    <row r="347" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -21549,7 +21655,7 @@
       <c r="BG347" s="3"/>
       <c r="BH347" s="3"/>
     </row>
-    <row r="348" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>

--- a/URBN.xlsx
+++ b/URBN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61836981-F721-4834-B906-FEB8066EA6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67299BC7-54B6-4EFB-83C0-9A82EF2675DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{74F0CBED-AE29-49BC-826C-5A327DCF0A9C}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{74F0CBED-AE29-49BC-826C-5A327DCF0A9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -220,13 +220,19 @@
     <numFmt numFmtId="166" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="167" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -283,38 +289,41 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -653,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1365A65-7955-473E-AB8C-4FB37DA242DC}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -676,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="J2" s="2">
-        <v>70.83</v>
+        <v>77.23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -684,10 +693,10 @@
         <v>5</v>
       </c>
       <c r="J3" s="3">
-        <v>89.667451</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>42</v>
+        <v>89.706922000000006</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -699,7 +708,7 @@
       </c>
       <c r="J4" s="3">
         <f>+J2*J3</f>
-        <v>6351.1455543299999</v>
+        <v>6928.0655860600009</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -711,11 +720,11 @@
         <v>7</v>
       </c>
       <c r="J5" s="3">
-        <f>332.171+290.664</f>
-        <v>622.83500000000004</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>42</v>
+        <f>306.6+305.133</f>
+        <v>611.73299999999995</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -725,8 +734,8 @@
       <c r="J6" s="3">
         <v>0</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>42</v>
+      <c r="K6" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -735,7 +744,7 @@
       </c>
       <c r="J7" s="3">
         <f>+J4-J5+J6</f>
-        <v>5728.3105543299998</v>
+        <v>6316.3325860600007</v>
       </c>
     </row>
   </sheetData>
@@ -751,10 +760,10 @@
   <dimension ref="A1:BH348"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1070,7 +1079,9 @@
       <c r="L10" s="7">
         <v>606.95399999999995</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="7">
+        <v>634.82799999999997</v>
+      </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -1107,7 +1118,9 @@
       <c r="L11" s="7">
         <v>415.01400000000001</v>
       </c>
-      <c r="M11" s="7"/>
+      <c r="M11" s="7">
+        <v>399.27199999999999</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -1144,7 +1157,9 @@
       <c r="L12" s="7">
         <v>333.17099999999999</v>
       </c>
-      <c r="M12" s="7"/>
+      <c r="M12" s="7">
+        <v>339.84800000000001</v>
+      </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -1181,7 +1196,9 @@
       <c r="L13" s="7">
         <v>138.93199999999999</v>
       </c>
-      <c r="M13" s="7"/>
+      <c r="M13" s="7">
+        <v>144.62899999999999</v>
+      </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -1218,7 +1235,9 @@
       <c r="L14" s="7">
         <v>10.683999999999999</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="M14" s="7">
+        <v>10.773</v>
+      </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -1255,7 +1274,9 @@
       <c r="L15" s="7">
         <v>1289.269</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="7">
+        <v>1296.454</v>
+      </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -1292,7 +1313,9 @@
       <c r="L16" s="7">
         <v>138.93199999999999</v>
       </c>
-      <c r="M16" s="7"/>
+      <c r="M16" s="7">
+        <v>144.62899999999999</v>
+      </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -1329,7 +1352,9 @@
       <c r="L17" s="7">
         <v>76.554000000000002</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="7">
+        <v>88.266999999999996</v>
+      </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -1366,7 +1391,9 @@
       <c r="L18" s="9">
         <v>1504.7550000000001</v>
       </c>
-      <c r="M18" s="7"/>
+      <c r="M18" s="9">
+        <v>1529.35</v>
+      </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -1446,7 +1473,10 @@
       <c r="L19" s="7">
         <v>938.59400000000005</v>
       </c>
-      <c r="M19" s="7"/>
+      <c r="M19" s="7">
+        <f>964.034+1.989</f>
+        <v>966.02300000000002</v>
+      </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
@@ -1528,7 +1558,7 @@
         <v>497.31900000000007</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" ref="J20:L20" si="3">+J18-J19</f>
+        <f t="shared" ref="J20:M20" si="3">+J18-J19</f>
         <v>527.68099999999981</v>
       </c>
       <c r="K20" s="3">
@@ -1539,7 +1569,10 @@
         <f t="shared" si="3"/>
         <v>566.16100000000006</v>
       </c>
-      <c r="M20" s="3"/>
+      <c r="M20" s="3">
+        <f t="shared" si="3"/>
+        <v>563.32699999999988</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -1617,7 +1650,9 @@
       <c r="L21" s="3">
         <v>391.774</v>
       </c>
-      <c r="M21" s="3"/>
+      <c r="M21" s="3">
+        <v>419.00799999999998</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -1699,7 +1734,7 @@
         <v>128.69100000000009</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" ref="J22:L22" si="5">+J20-J21</f>
+        <f t="shared" ref="J22:M22" si="5">+J20-J21</f>
         <v>125.31399999999979</v>
       </c>
       <c r="K22" s="3">
@@ -1710,7 +1745,10 @@
         <f t="shared" si="5"/>
         <v>174.38700000000006</v>
       </c>
-      <c r="M22" s="3"/>
+      <c r="M22" s="3">
+        <f t="shared" si="5"/>
+        <v>144.3189999999999</v>
+      </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -1787,7 +1825,9 @@
       <c r="L23" s="3">
         <v>8.8859999999999992</v>
       </c>
-      <c r="M23" s="3"/>
+      <c r="M23" s="3">
+        <v>8.1259999999999994</v>
+      </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -1869,7 +1909,7 @@
         <v>135.83200000000008</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" ref="J24:L24" si="7">+J22+J23</f>
+        <f t="shared" ref="J24:M24" si="7">+J22+J23</f>
         <v>130.90599999999981</v>
       </c>
       <c r="K24" s="3">
@@ -1880,7 +1920,10 @@
         <f t="shared" si="7"/>
         <v>183.27300000000005</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="3">
+        <f t="shared" si="7"/>
+        <v>152.44499999999991</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -1957,7 +2000,9 @@
       <c r="L25" s="3">
         <v>39.408000000000001</v>
       </c>
-      <c r="M25" s="3"/>
+      <c r="M25" s="3">
+        <v>36.003999999999998</v>
+      </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -2039,7 +2084,7 @@
         <v>102.91100000000009</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" ref="J26:L26" si="9">+J24-J25</f>
+        <f t="shared" ref="J26:M26" si="9">+J24-J25</f>
         <v>120.3009999999998</v>
       </c>
       <c r="K26" s="3">
@@ -2050,7 +2095,10 @@
         <f t="shared" si="9"/>
         <v>143.86500000000007</v>
       </c>
-      <c r="M26" s="3"/>
+      <c r="M26" s="3">
+        <f t="shared" si="9"/>
+        <v>116.44099999999992</v>
+      </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -2203,7 +2251,10 @@
         <f>+L26/L29</f>
         <v>1.6044283449074521</v>
       </c>
-      <c r="M28" s="3"/>
+      <c r="M28" s="14">
+        <f>+M26/M29</f>
+        <v>1.2980157763076512</v>
+      </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -2280,7 +2331,9 @@
       <c r="L29" s="3">
         <v>89.667451</v>
       </c>
-      <c r="M29" s="3"/>
+      <c r="M29" s="3">
+        <v>89.706922000000006</v>
+      </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -2410,7 +2463,7 @@
         <v>3.5410764872521261E-2</v>
       </c>
       <c r="J31" s="15">
-        <f t="shared" ref="J31:L31" si="13">+J7/F7-1</f>
+        <f t="shared" ref="J31:M31" si="13">+J7/F7-1</f>
         <v>3.82436260623229E-2</v>
       </c>
       <c r="K31" s="15" t="e">
@@ -2421,7 +2474,10 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M31" s="3"/>
+      <c r="M31" s="15">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -2502,7 +2558,10 @@
         <f>+L10/H10-1</f>
         <v>6.6515550869794327E-2</v>
       </c>
-      <c r="M32" s="3"/>
+      <c r="M32" s="15">
+        <f>+M10/I10-1</f>
+        <v>7.9780855656267802E-2</v>
+      </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -2576,14 +2635,17 @@
         <v>-0.14256927230267269</v>
       </c>
       <c r="K33" s="15">
-        <f t="shared" ref="K33:L36" si="15">+K11/G11-1</f>
+        <f t="shared" ref="K33:M36" si="15">+K11/G11-1</f>
         <v>0.10800744294630249</v>
       </c>
       <c r="L33" s="15">
         <f t="shared" si="15"/>
         <v>0.1366229469584721</v>
       </c>
-      <c r="M33" s="3"/>
+      <c r="M33" s="15">
+        <f t="shared" si="15"/>
+        <v>9.1333499154040876E-2</v>
+      </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -2664,7 +2726,10 @@
         <f t="shared" si="15"/>
         <v>5.1958385299085919E-2</v>
       </c>
-      <c r="M34" s="3"/>
+      <c r="M34" s="15">
+        <f t="shared" si="15"/>
+        <v>0.13065204589838886</v>
+      </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -2745,7 +2810,10 @@
         <f t="shared" si="15"/>
         <v>0.53184263914615859</v>
       </c>
-      <c r="M35" s="3"/>
+      <c r="M35" s="15">
+        <f t="shared" si="15"/>
+        <v>0.48746297515221326</v>
+      </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -2826,7 +2894,10 @@
         <f t="shared" si="15"/>
         <v>3.5371644539199387E-2</v>
       </c>
-      <c r="M36" s="3"/>
+      <c r="M36" s="15">
+        <f t="shared" si="15"/>
+        <v>4.9386323787258934E-2</v>
+      </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
@@ -2884,7 +2955,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="17" t="e">
-        <f t="shared" ref="G37:L37" si="16">+G18/C18-1</f>
+        <f t="shared" ref="G37:M37" si="16">+G18/C18-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H37" s="17" t="e">
@@ -2907,7 +2978,10 @@
         <f t="shared" si="16"/>
         <v>0.11301822022709263</v>
       </c>
-      <c r="M37" s="3"/>
+      <c r="M37" s="17">
+        <f t="shared" si="16"/>
+        <v>0.12299033303839235</v>
+      </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
@@ -3000,7 +3074,10 @@
         <f>+L20/L18</f>
         <v>0.37624796063146493</v>
       </c>
-      <c r="M38" s="3"/>
+      <c r="M38" s="15">
+        <f>+M20/M18</f>
+        <v>0.36834406774119721</v>
+      </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -3093,7 +3170,10 @@
         <f>+L22/L18</f>
         <v>0.1158906267133188</v>
       </c>
-      <c r="M39" s="3"/>
+      <c r="M39" s="15">
+        <f>+M22/M18</f>
+        <v>9.4366234020989245E-2</v>
+      </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
@@ -3186,7 +3266,10 @@
         <f>+L25/L24</f>
         <v>0.2150234895483786</v>
       </c>
-      <c r="M40" s="3"/>
+      <c r="M40" s="15">
+        <f>+M25/M24</f>
+        <v>0.23617698186231112</v>
+      </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
